--- a/scripts/output/202001/全家/全家整体收益估算.xlsx
+++ b/scripts/output/202001/全家/全家整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q122"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
-    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
-    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
-    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
-    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
-    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
-    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
-    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
-    <col customWidth="1" max="12" min="12" width="12.8"/>
-    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
-    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
-    <col customWidth="1" max="15" min="15" width="12"/>
-    <col customWidth="1" max="17" min="17" width="14.4"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
+    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
+    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
+    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
+    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
+    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
+    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12.8" customWidth="1" min="12" max="12"/>
+    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
+    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="14.4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -562,37 +562,37 @@
         <v>90010</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.6512</v>
+        <v>1.6538</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2559.09</v>
+        <v>2684.17</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>4327.42</v>
+        <v>4632.88</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>101.85</v>
+        <v>193.8</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.691</v>
+        <v>1.726</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6912</v>
+        <v>1.7276</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0061</v>
+        <v>0.001</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>0.51</v>
+        <v>4.29</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -631,37 +631,37 @@
         <v>519671</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.4296</v>
+        <v>1.4332</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2845.5</v>
+        <v>2981.05</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>4265.4</v>
+        <v>4516.29</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>197.48</v>
+        <v>243.85</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.499</v>
+        <v>1.515</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4999</v>
+        <v>1.5146</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K3" s="8" t="n">
-        <v>2.56</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>-1.19</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -700,37 +700,37 @@
         <v>3318</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.9342</v>
+        <v>0.9363</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3835.61</v>
+        <v>4027.38</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3701.75</v>
+        <v>4028.59</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118.52</v>
+        <v>257.75</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9651</v>
+        <v>1.0003</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9651999999999999</v>
+        <v>0.9961</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>0.38</v>
+        <v>-0.0042</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>-16.91</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,31 +775,31 @@
         <v>2260.14</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3453.72</v>
+        <v>3506.83</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406.83</v>
+        <v>459.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.5281</v>
+        <v>1.5516</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.5212</v>
+        <v>1.5568</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>-15.59</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>11.75</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 16:00</t>
+          <t>2020-01-14 16:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,31 +844,31 @@
         <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2719.11</v>
+        <v>2816.31</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>266.81</v>
+        <v>364.02</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.9944</v>
+        <v>2.0657</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.9944</v>
+        <v>2.0582</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>0</v>
+        <v>-0.0036</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>-10.23</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -913,31 +913,31 @@
         <v>1134.65</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2640.78</v>
+        <v>2728.83</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>217.17</v>
+        <v>305.22</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.3274</v>
+        <v>2.405</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.3275</v>
+        <v>2.3938</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>0.11</v>
+        <v>-0.0047</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>-12.71</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>1067.42</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1070.94</v>
+        <v>1125.06</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>47.39</v>
+        <v>101.51</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.0033</v>
+        <v>1.054</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.0035</v>
+        <v>1.0509</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>0.21</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>-3.31</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>551.5599999999999</v>
+        <v>569.5</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.68</v>
+        <v>28.62</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.0021</v>
+        <v>1.0347</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9991</v>
+        <v>1.0319</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0031</v>
+        <v>-0.0027</v>
       </c>
       <c r="K9" s="9" t="n">
-        <v>-1.65</v>
+        <v>-1.54</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1107,44 +1107,44 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>1550</v>
+        <v>1594</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.6708</v>
+        <v>1.2523</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>531.87</v>
+        <v>396.18</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>420.55</v>
+        <v>501.64</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63.77</v>
+        <v>5.51</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7907</v>
+        <v>1.2662</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7912</v>
+        <v>1.2632</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>0.27</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>-1.19</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="O10" s="6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P10" s="6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q10" s="6" t="inlineStr">
@@ -1176,44 +1176,44 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>1594</v>
+        <v>1550</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>1.2422</v>
+        <v>0.6708</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>244.71</v>
+        <v>531.87</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307.85</v>
+        <v>437.68</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.87</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.258</v>
+        <v>0.8229</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.2579</v>
+        <v>0.8209</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0024</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>-0.02</v>
+        <v>-1.06</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1228,12 +1228,12 @@
       </c>
       <c r="O11" s="6" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P11" s="6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>247.91</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>342.61</v>
+        <v>346.08</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29.35</v>
+        <v>32.82</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.382</v>
+        <v>1.396</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.3804</v>
+        <v>1.3908</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0019</v>
+        <v>-0.0037</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>-0.4</v>
+        <v>-1.29</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1327,31 +1327,31 @@
         <v>64.5</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91.31999999999999</v>
+        <v>92.25</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.39</v>
+        <v>-0.46</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.4158</v>
+        <v>1.4302</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.4161</v>
+        <v>1.4298</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>0.02</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>-0.03</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>16731.88</v>
       </c>
       <c r="E14" s="13" t="n">
-        <v>9858.42</v>
+        <v>10552.8</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>-2141.68</v>
+        <v>-1447.31</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v>0.5891999999999999</v>
+        <v>0.6307</v>
       </c>
       <c r="H14" s="14" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I14" s="12" t="n">
-        <v>0.5891999999999999</v>
+        <v>0.6352</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>0.0031</v>
+        <v>0.0071</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>0</v>
+        <v>75.29000000000001</v>
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M14" s="14" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>2700</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>8253.9</v>
+        <v>8324.1</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>1944</v>
+        <v>2014.2</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>3.057</v>
+        <v>3.083</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.058</v>
+        <v>3.076</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>2.7</v>
+        <v>-0.0013</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>-18.9</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1534,31 +1534,31 @@
         <v>9100</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>37249.94</v>
+        <v>38215.45</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>5882.24</v>
+        <v>6847.75</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>4.0934</v>
+        <v>4.1995</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>4.096</v>
+        <v>4.184</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.0052</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>23.66</v>
+        <v>-0.0043</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>-141.05</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1603,31 +1603,31 @@
         <v>38800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>221458.76</v>
+        <v>233719.56</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>4139.96</v>
+        <v>16400.76</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>5.7077</v>
+        <v>6.0237</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>5.705</v>
+        <v>6.005</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0.004</v>
+        <v>-0.0043</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>-104.76</v>
+        <v>-725.5599999999999</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1672,31 +1672,31 @@
         <v>33800</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>26617.5</v>
+        <v>28598.18</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>-3025.1</v>
+        <v>-1044.42</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.7875</v>
+        <v>0.8461</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.786</v>
+        <v>0.851</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>-50.7</v>
+        <v>0.0071</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>165.62</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1741,31 +1741,31 @@
         <v>32700</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>34027.62</v>
+        <v>34367.7</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>8423.52</v>
+        <v>8763.6</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>1.0406</v>
+        <v>1.051</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>1.04</v>
+        <v>1.036</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.0057</v>
+        <v>-0.0133</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>-19.62</v>
+        <v>-490.5</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,31 +1810,31 @@
         <v>34100</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>28473.5</v>
+        <v>31498.17</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>-1159.4</v>
+        <v>1865.27</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>0.835</v>
+        <v>0.9237</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>0.835</v>
+        <v>0.926</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>-0.0036</v>
+        <v>-0.0032</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>0</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,31 +1879,31 @@
         <v>4500</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15146.1</v>
+        <v>15233.85</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2294.1</v>
+        <v>2381.85</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>3.3658</v>
+        <v>3.3853</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>3.384</v>
+        <v>3.374</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>81.90000000000001</v>
+        <v>-0.0129</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-50.85</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,31 +1948,31 @@
         <v>9200</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>15919.68</v>
+        <v>17123.96</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>3048.88</v>
+        <v>4253.16</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.7304</v>
+        <v>1.8613</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>0.0017</v>
+        <v>-0.0064</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>-3.68</v>
+        <v>-103.96</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31 15:04</t>
+          <t>2020-01-14 15:04</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2017,31 +2017,31 @@
         <v>14400</v>
       </c>
       <c r="E23" s="19" t="n">
-        <v>19895.04</v>
+        <v>20659.68</v>
       </c>
       <c r="F23" s="19" t="n">
-        <v>1592.64</v>
+        <v>2357.28</v>
       </c>
       <c r="G23" s="18" t="n">
-        <v>1.3816</v>
+        <v>1.4347</v>
       </c>
       <c r="H23" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I23" s="18" t="n">
-        <v>1.381</v>
+        <v>1.428</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>0.0222</v>
+        <v>-0.0049</v>
       </c>
       <c r="K23" s="9" t="n">
-        <v>-8.640000000000001</v>
+        <v>-96.48</v>
       </c>
       <c r="L23" s="20" t="inlineStr">
         <is>
-          <t>2019-12-31 15:04</t>
+          <t>2020-01-14 15:04</t>
         </is>
       </c>
       <c r="M23" s="20" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>4157.52</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>8568.23</v>
+        <v>9027.219999999999</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>564.1799999999999</v>
+        <v>1023.17</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>2.0609</v>
+        <v>2.1713</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>2.0629</v>
+        <v>2.1649</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>8.32</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-26.61</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>9722</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>5728.2</v>
+        <v>6131.67</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>391.8</v>
+        <v>795.26</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.5891999999999999</v>
+        <v>0.6307</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.5891999999999999</v>
+        <v>0.6352</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0031</v>
+        <v>0.0071</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>0</v>
+        <v>43.75</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>4943.96</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4960.28</v>
+        <v>5210.93</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>291.2</v>
+        <v>541.86</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>1.0033</v>
+        <v>1.054</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>1.0035</v>
+        <v>1.0509</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>0.99</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-15.33</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>7379.54</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4309.65</v>
+        <v>4538.42</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>307.73</v>
+        <v>536.49</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>0.584</v>
+        <v>0.615</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.5847</v>
+        <v>0.6132</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K27" s="8" t="n">
-        <v>5.17</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-13.28</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>3665.01</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>4251.41</v>
+        <v>4335.71</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>249.59</v>
+        <v>333.88</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>1.16</v>
+        <v>1.183</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.16</v>
+        <v>1.1841</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0061</v>
+        <v>0.001</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>4550.55</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>3796.07</v>
+        <v>4164.66</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>460.97</v>
+        <v>829.5700000000001</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>0.8342000000000001</v>
+        <v>0.9152</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>0.8349</v>
+        <v>0.9152</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>400.63</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>742.89</v>
+        <v>795.73</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>75.88</v>
+        <v>128.72</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>1.8543</v>
+        <v>1.9862</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>1.8544</v>
+        <v>1.9739</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>0.04</v>
+        <v>-0.0062</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>-4.93</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>736.3</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>739.76</v>
+        <v>791.38</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>72.75</v>
+        <v>124.36</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>1.0047</v>
+        <v>1.0748</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>1.005</v>
+        <v>1.0682</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>0.22</v>
+        <v>-0.0062</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-4.86</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>809.28</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>696.0599999999999</v>
+        <v>721.15</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>29.05</v>
+        <v>54.14</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.8601</v>
+        <v>0.8911</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.8604000000000001</v>
+        <v>0.8865</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0217</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>0.24</v>
+        <v>-0.0051</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-3.72</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>473.85</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>526.16</v>
+        <v>531.23</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>59.28</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.1104</v>
+        <v>1.1211</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.1105</v>
+        <v>1.1075</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-0.0037</v>
-      </c>
-      <c r="K33" s="8" t="n">
-        <v>0.05</v>
+        <v>-0.0122</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-6.44</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>5299.96</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>2172.98</v>
+        <v>2109.38</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>172.25</v>
+        <v>108.65</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>0.41</v>
+        <v>0.398</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>0.406</v>
+        <v>0.397</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0098</v>
+        <v>-0.0124</v>
       </c>
       <c r="K34" s="9" t="n">
-        <v>-21.2</v>
+        <v>-5.3</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:04</t>
+          <t>2020-01-14 15:04</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,31 +2845,31 @@
         <v>576.8</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>785.02</v>
+        <v>841.55</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>118.01</v>
+        <v>174.54</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.361</v>
+        <v>1.459</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.3745</v>
+        <v>1.462</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0.0018</v>
+        <v>0.002</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>7.79</v>
+        <v>1.73</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2020-01-01 05:00</t>
+          <t>2020-01-14 05:00</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2914,31 +2914,31 @@
         <v>459.67</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>721.59</v>
+        <v>736.8099999999999</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>54.61</v>
+        <v>69.81999999999999</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.5698</v>
+        <v>1.6029</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.5703</v>
+        <v>1.5992</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>0.23</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-1.7</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 16:00</t>
+          <t>2020-01-14 16:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2983,17 +2983,17 @@
         <v>611.75</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>742.05</v>
+        <v>744.5</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>75.06</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.213</v>
+        <v>1.217</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
@@ -3052,31 +3052,31 @@
         <v>1046.73</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>2157.21</v>
+        <v>2272.76</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>157.22</v>
+        <v>272.78</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>2.0609</v>
+        <v>2.1713</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>2.0629</v>
+        <v>2.1649</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K38" s="8" t="n">
-        <v>2.09</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-6.7</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1825.9</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>2118.04</v>
+        <v>2160.04</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>117.95</v>
+        <v>159.95</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>1.16</v>
+        <v>1.183</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>1.16</v>
+        <v>1.1841</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.0061</v>
+        <v>0.001</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1059.17</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>1106.83</v>
+        <v>1115.31</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>106.87</v>
+        <v>115.34</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>1.045</v>
+        <v>1.053</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>1.0452</v>
+        <v>1.0499</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>0.21</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-3.28</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1812.7</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>1058.62</v>
+        <v>1114.81</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>58.55</v>
+        <v>114.74</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>0.584</v>
+        <v>0.615</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>0.5847</v>
+        <v>0.6132</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>1.27</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-3.26</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>1227.03</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1023.59</v>
+        <v>1122.98</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>23.56</v>
+        <v>122.95</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>0.8342000000000001</v>
+        <v>0.9152</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>0.8349</v>
+        <v>0.9152</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1224.66</v>
+        <v>1312.84</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>224.69</v>
+        <v>312.87</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.361</v>
+        <v>1.459</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.3745</v>
+        <v>1.462</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0018</v>
+        <v>0.002</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>12.15</v>
+        <v>2.7</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2020-01-01 05:00</t>
+          <t>2020-01-14 05:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>689.02</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1081.62</v>
+        <v>1104.43</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>81.65000000000001</v>
+        <v>104.46</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>1.5698</v>
+        <v>1.6029</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.5703</v>
+        <v>1.5992</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K44" s="8" t="n">
-        <v>0.34</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-2.55</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 16:00</t>
+          <t>2020-01-14 16:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,31 +3535,31 @@
         <v>1834.47</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>2286.85</v>
+        <v>2300.79</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>286.91</v>
+        <v>300.85</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>1.2466</v>
+        <v>1.2542</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
-        <v>1.2463</v>
+        <v>1.2543</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="K45" s="9" t="n">
-        <v>-0.55</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>0.18</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:30</t>
+          <t>2020-01-14 20:06</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
@@ -3604,31 +3604,31 @@
         <v>4757.9</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1950.74</v>
+        <v>1893.64</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>-49.48</v>
+        <v>-106.58</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>0.41</v>
+        <v>0.398</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>0.406</v>
+        <v>0.397</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>-0.0098</v>
+        <v>-0.0124</v>
       </c>
       <c r="K46" s="9" t="n">
-        <v>-19.03</v>
+        <v>-4.76</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:04</t>
+          <t>2020-01-14 15:04</t>
         </is>
       </c>
       <c r="M46" s="26" t="inlineStr">
@@ -3673,17 +3673,17 @@
         <v>953.96</v>
       </c>
       <c r="E47" s="25" t="n">
-        <v>1157.15</v>
+        <v>1160.97</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>157.12</v>
+        <v>160.93</v>
       </c>
       <c r="G47" s="24" t="n">
-        <v>1.213</v>
+        <v>1.217</v>
       </c>
       <c r="H47" s="26" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="I47" s="24" t="n">
@@ -3742,31 +3742,31 @@
         <v>595.47</v>
       </c>
       <c r="E48" s="25" t="n">
-        <v>1048.03</v>
+        <v>1064.1</v>
       </c>
       <c r="F48" s="25" t="n">
-        <v>48.05</v>
+        <v>64.13</v>
       </c>
       <c r="G48" s="24" t="n">
-        <v>1.76</v>
+        <v>1.787</v>
       </c>
       <c r="H48" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I48" s="24" t="n">
-        <v>1.7588</v>
+        <v>1.7843</v>
       </c>
       <c r="J48" s="27" t="n">
-        <v>0.0033</v>
+        <v>-0.0015</v>
       </c>
       <c r="K48" s="9" t="n">
-        <v>-0.71</v>
+        <v>-1.61</v>
       </c>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M48" s="26" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>65064.33</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>75474.62</v>
+        <v>76971.10000000001</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>9154.549999999999</v>
+        <v>10651.03</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>1.16</v>
+        <v>1.183</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.16</v>
+        <v>1.1841</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0061</v>
+        <v>0.001</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>0</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>63490</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>63699.52</v>
+        <v>66918.46000000001</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>5498.23</v>
+        <v>8717.18</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.0033</v>
+        <v>1.054</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.0035</v>
+        <v>1.0509</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="K50" s="8" t="n">
-        <v>12.7</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-196.82</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,31 +3949,31 @@
         <v>32370.29</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>39310.48</v>
+        <v>40139.16</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>7309.21</v>
+        <v>8137.89</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>1.2144</v>
+        <v>1.24</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.2106</v>
+        <v>1.2388</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.0008</v>
+        <v>-0.001</v>
       </c>
       <c r="K51" s="9" t="n">
-        <v>-123.01</v>
+        <v>-38.84</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4018,31 +4018,31 @@
         <v>20086.63</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>35352.47</v>
+        <v>35894.81</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>3352.46</v>
+        <v>3894.8</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.76</v>
+        <v>1.787</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.7588</v>
+        <v>1.7843</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0.0033</v>
+        <v>-0.0015</v>
       </c>
       <c r="K52" s="9" t="n">
-        <v>-24.1</v>
+        <v>-54.23</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,31 +4087,31 @@
         <v>41014.88</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>35276.9</v>
+        <v>36548.36</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4716.71</v>
+        <v>5988.17</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>0.8601</v>
+        <v>0.8911</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>0.8604000000000001</v>
+        <v>0.8865</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>0.0217</v>
-      </c>
-      <c r="K53" s="8" t="n">
-        <v>12.3</v>
+        <v>-0.0051</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-188.67</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,17 +4156,17 @@
         <v>20716.63</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>25129.27</v>
+        <v>25212.14</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>2527.43</v>
+        <v>2610.3</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.213</v>
+        <v>1.217</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
@@ -4225,31 +4225,31 @@
         <v>14624.61</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>24861.84</v>
+        <v>25490.7</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>5661.19</v>
+        <v>6290.04</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.7</v>
+        <v>1.743</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.6979</v>
+        <v>1.7374</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0035</v>
+        <v>-0.0032</v>
       </c>
       <c r="K55" s="9" t="n">
-        <v>-30.71</v>
+        <v>-81.90000000000001</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>21163.93</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>24427.41</v>
+        <v>24605.19</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>5225.37</v>
+        <v>5403.15</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.1542</v>
+        <v>1.1626</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.1543</v>
+        <v>1.1576</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0011</v>
-      </c>
-      <c r="K56" s="8" t="n">
-        <v>2.12</v>
+        <v>-0.0043</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>-105.82</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>16778.47</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>22835.5</v>
+        <v>24479.79</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>3634.22</v>
+        <v>5278.51</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.361</v>
+        <v>1.459</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.3745</v>
+        <v>1.462</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0018</v>
+        <v>0.002</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>226.51</v>
+        <v>50.34</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2020-01-01 05:00</t>
+          <t>2020-01-14 05:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>16238.8</v>
+        <v>17134.6</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>3438.36</v>
+        <v>4334.16</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.704</v>
+        <v>1.798</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7019</v>
+        <v>1.7927</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0047</v>
+        <v>-0.0029</v>
       </c>
       <c r="K58" s="9" t="n">
-        <v>-20.01</v>
+        <v>-50.51</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,31 +4501,31 @@
         <v>37267.45</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>15279.65</v>
+        <v>14832.45</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>-3920.54</v>
+        <v>-4367.75</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>0.41</v>
+        <v>0.398</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>0.406</v>
+        <v>0.397</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>-0.0098</v>
+        <v>-0.0124</v>
       </c>
       <c r="K59" s="9" t="n">
-        <v>-149.07</v>
+        <v>-37.27</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:04</t>
+          <t>2020-01-14 15:04</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4570,31 +4570,31 @@
         <v>6798.52</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>10672.32</v>
+        <v>10897.35</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>772.3099999999999</v>
+        <v>997.34</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.5698</v>
+        <v>1.6029</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>1.5703</v>
+        <v>1.5992</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K60" s="8" t="n">
-        <v>3.4</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-25.15</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 16:00</t>
+          <t>2020-01-14 16:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4639,31 +4639,31 @@
         <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7897.59</v>
+        <v>8453.85</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>1497.22</v>
+        <v>2053.48</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.5891999999999999</v>
+        <v>0.6307</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5891999999999999</v>
+        <v>0.6352</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0031</v>
+        <v>0.0071</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>0</v>
+        <v>60.32</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>5328.62</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>7622.06</v>
+        <v>7797.9</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>1221.85</v>
+        <v>1397.7</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>1.4304</v>
+        <v>1.4634</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>1.4287</v>
+        <v>1.4617</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0045</v>
+        <v>-0.0011</v>
       </c>
       <c r="K62" s="9" t="n">
         <v>-9.06</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,17 +4777,17 @@
         <v>5609.79</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>7601.27</v>
+        <v>7651.75</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>2455.97</v>
+        <v>2506.45</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>1.355</v>
+        <v>1.364</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
@@ -4843,34 +4843,34 @@
         <v>0.9</v>
       </c>
       <c r="D64" s="31" t="n">
-        <v>7778.64</v>
+        <v>3889.32</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>7140.01</v>
+        <v>3753.58</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>139.24</v>
+        <v>253.19</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.9179</v>
+        <v>0.9651</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9181</v>
+        <v>0.9623</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K64" s="8" t="n">
-        <v>1.56</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-10.89</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4915,31 +4915,31 @@
         <v>3299.64</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>6800.23</v>
+        <v>7164.51</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>399.92</v>
+        <v>764.2</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>2.0609</v>
+        <v>2.1713</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>2.0629</v>
+        <v>2.1649</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K65" s="8" t="n">
-        <v>6.6</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-21.12</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4984,31 +4984,31 @@
         <v>7852.99</v>
       </c>
       <c r="E66" s="31" t="n">
-        <v>6550.96</v>
+        <v>7187.06</v>
       </c>
       <c r="F66" s="31" t="n">
-        <v>150.78</v>
+        <v>786.87</v>
       </c>
       <c r="G66" s="30" t="n">
-        <v>0.8342000000000001</v>
+        <v>0.9152</v>
       </c>
       <c r="H66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I66" s="30" t="n">
-        <v>0.8349</v>
+        <v>0.9152</v>
       </c>
       <c r="J66" s="33" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M66" s="32" t="inlineStr">
@@ -5038,115 +5038,115 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="28" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="B67" s="29" t="n">
-        <v>3647</v>
-      </c>
-      <c r="C67" s="30" t="n">
-        <v>0.9776</v>
-      </c>
-      <c r="D67" s="31" t="n">
-        <v>3580.2</v>
-      </c>
-      <c r="E67" s="31" t="n">
-        <v>3614.21</v>
-      </c>
-      <c r="F67" s="31" t="n">
-        <v>114.21</v>
-      </c>
-      <c r="G67" s="30" t="n">
-        <v>1.0095</v>
-      </c>
-      <c r="H67" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-31</t>
-        </is>
-      </c>
-      <c r="I67" s="30" t="n">
-        <v>1.0108</v>
-      </c>
-      <c r="J67" s="33" t="n">
-        <v>0.0064</v>
-      </c>
-      <c r="K67" s="8" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="L67" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-31 15:00</t>
-        </is>
-      </c>
-      <c r="M67" s="32" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>519671</v>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>1.4318</v>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>1128.52</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>1709.71</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>93.89</v>
+      </c>
+      <c r="G67" s="4" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="H67" s="6" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="I67" s="4" t="n">
+        <v>1.5146</v>
+      </c>
+      <c r="J67" s="7" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="L67" s="6" t="inlineStr">
+        <is>
+          <t>2020-01-14 15:00</t>
+        </is>
+      </c>
+      <c r="M67" s="6" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N67" s="32" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="O67" s="32" t="inlineStr">
-        <is>
-          <t>中证1000</t>
-        </is>
-      </c>
-      <c r="P67" s="32" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="Q67" s="32" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="N67" s="6" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="O67" s="6" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="P67" s="6" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="Q67" s="6" t="inlineStr">
+        <is>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B68" s="3" t="n">
-        <v>519671</v>
+        <v>90010</v>
       </c>
       <c r="C68" s="4" t="n">
-        <v>1.4279</v>
+        <v>1.6549</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>1074.3</v>
+        <v>965.5700000000001</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>1610.38</v>
+        <v>1666.57</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>76.38</v>
+        <v>68.65000000000001</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>1.499</v>
+        <v>1.726</v>
       </c>
       <c r="H68" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>1.4999</v>
+        <v>1.7276</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>0.0012</v>
+        <v>0.001</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>0.97</v>
+        <v>1.54</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M68" s="6" t="inlineStr">
@@ -5156,17 +5156,17 @@
       </c>
       <c r="N68" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O68" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P68" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q68" s="6" t="inlineStr">
@@ -5178,44 +5178,44 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B69" s="3" t="n">
-        <v>90010</v>
+        <v>3318</v>
       </c>
       <c r="C69" s="4" t="n">
-        <v>1.652</v>
+        <v>0.9358</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>915.53</v>
+        <v>1478.24</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>1548.16</v>
+        <v>1478.68</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>35.71</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>1.691</v>
+        <v>1.0003</v>
       </c>
       <c r="H69" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1.6912</v>
+        <v>0.9961</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>0.0061</v>
-      </c>
-      <c r="K69" s="8" t="n">
-        <v>0.18</v>
+        <v>-0.0042</v>
+      </c>
+      <c r="K69" s="9" t="n">
+        <v>-6.21</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M69" s="6" t="inlineStr">
@@ -5225,17 +5225,17 @@
       </c>
       <c r="N69" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O69" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P69" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q69" s="6" t="inlineStr">
@@ -5247,64 +5247,64 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B70" s="3" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C70" s="4" t="n">
-        <v>0.9335</v>
+        <v>1.3485</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>1401.53</v>
+        <v>898.04</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>1352.62</v>
+        <v>1393.4</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>44.29</v>
+        <v>182.39</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>0.9651</v>
+        <v>1.5516</v>
       </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>0.9651999999999999</v>
+        <v>1.5568</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>0.0035</v>
+        <v>-0.0023</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>0.14</v>
+        <v>4.67</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 16:00</t>
         </is>
       </c>
       <c r="M70" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N70" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O70" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P70" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q70" s="6" t="inlineStr">
@@ -5316,64 +5316,64 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B71" s="3" t="n">
-        <v>501021</v>
+        <v>70023</v>
       </c>
       <c r="C71" s="4" t="n">
-        <v>1.3485</v>
+        <v>1.7966</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>898.04</v>
+        <v>492.58</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>1372.29</v>
+        <v>1017.52</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>161.29</v>
+        <v>132.55</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>1.5281</v>
+        <v>2.0657</v>
       </c>
       <c r="H71" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>1.5212</v>
+        <v>2.0582</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>-0.0043</v>
+        <v>-0.0036</v>
       </c>
       <c r="K71" s="9" t="n">
-        <v>-6.2</v>
+        <v>-3.69</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 16:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M71" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N71" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O71" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="P71" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>116</t>
         </is>
       </c>
       <c r="Q71" s="6" t="inlineStr">
@@ -5385,44 +5385,44 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B72" s="3" t="n">
-        <v>70023</v>
+        <v>530015</v>
       </c>
       <c r="C72" s="4" t="n">
-        <v>1.7966</v>
+        <v>2.1277</v>
       </c>
       <c r="D72" s="5" t="n">
-        <v>492.58</v>
+        <v>421.99</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>982.4</v>
+        <v>1014.89</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>97.43000000000001</v>
+        <v>117.02</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>1.9944</v>
+        <v>2.405</v>
       </c>
       <c r="H72" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>1.9944</v>
+        <v>2.3938</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="K72" s="8" t="n">
-        <v>0</v>
+        <v>-0.0047</v>
+      </c>
+      <c r="K72" s="9" t="n">
+        <v>-4.73</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
@@ -5437,12 +5437,12 @@
       </c>
       <c r="O72" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="P72" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Q72" s="6" t="inlineStr">
@@ -5454,44 +5454,44 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B73" s="3" t="n">
-        <v>530015</v>
+        <v>968</v>
       </c>
       <c r="C73" s="4" t="n">
-        <v>2.1277</v>
+        <v>0.9599</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>421.99</v>
+        <v>390.82</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>982.14</v>
+        <v>411.92</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>84.27</v>
+        <v>36.78</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>2.3274</v>
+        <v>1.054</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>2.3275</v>
+        <v>1.0509</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="K73" s="8" t="n">
-        <v>0.04</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K73" s="9" t="n">
+        <v>-1.21</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5501,17 +5501,17 @@
       </c>
       <c r="N73" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O73" s="6" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P73" s="6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q73" s="6" t="inlineStr">
@@ -5523,44 +5523,44 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B74" s="3" t="n">
-        <v>968</v>
+        <v>501029</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>0.9599</v>
+        <v>0.9829</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>390.82</v>
+        <v>214.89</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>392.11</v>
+        <v>222.35</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>16.96</v>
+        <v>11.13</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.0033</v>
+        <v>1.0347</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.0035</v>
+        <v>1.0319</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="K74" s="8" t="n">
-        <v>0.08</v>
+        <v>-0.0027</v>
+      </c>
+      <c r="K74" s="9" t="n">
+        <v>-0.6</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5570,17 +5570,17 @@
       </c>
       <c r="N74" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O74" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P74" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q74" s="6" t="inlineStr">
@@ -5592,44 +5592,44 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B75" s="3" t="n">
-        <v>501029</v>
+        <v>1550</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>0.9829</v>
+        <v>0.6708</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>214.89</v>
+        <v>212.74</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>215.34</v>
+        <v>175.06</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>4.13</v>
+        <v>32.36</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.0021</v>
+        <v>0.8229</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>0.9991</v>
+        <v>0.8209</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.0031</v>
+        <v>-0.0024</v>
       </c>
       <c r="K75" s="9" t="n">
-        <v>-0.64</v>
+        <v>-0.43</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5639,17 +5639,17 @@
       </c>
       <c r="N75" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O75" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P75" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q75" s="6" t="inlineStr">
@@ -5661,44 +5661,44 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B76" s="3" t="n">
-        <v>1550</v>
+        <v>1594</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>0.6708</v>
+        <v>1.2568</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>212.74</v>
+        <v>109.5</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>168.21</v>
+        <v>138.65</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>25.51</v>
+        <v>1.03</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>0.7907</v>
+        <v>1.2662</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.7912</v>
+        <v>1.2632</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="K76" s="8" t="n">
-        <v>0.11</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K76" s="9" t="n">
+        <v>-0.33</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="O76" s="6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P76" s="6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q76" s="6" t="inlineStr">
@@ -5730,44 +5730,44 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B77" s="3" t="n">
-        <v>1594</v>
+        <v>501050</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>1.2424</v>
+        <v>1.2891</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>48.92</v>
+        <v>62.09</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>61.54</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>0.76</v>
+        <v>6.64</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.258</v>
+        <v>1.396</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.2579</v>
+        <v>1.3908</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0005999999999999999</v>
-      </c>
-      <c r="K77" s="8" t="n">
-        <v>-0</v>
+        <v>-0.0037</v>
+      </c>
+      <c r="K77" s="9" t="n">
+        <v>-0.32</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5777,17 +5777,17 @@
       </c>
       <c r="N77" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O77" s="6" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="P77" s="6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>112</t>
         </is>
       </c>
       <c r="Q77" s="6" t="inlineStr">
@@ -5799,44 +5799,44 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B78" s="3" t="n">
-        <v>501050</v>
+        <v>310398</v>
       </c>
       <c r="C78" s="4" t="n">
-        <v>1.2891</v>
+        <v>1.4372</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>62.09</v>
+        <v>25.8</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>85.81</v>
+        <v>36.9</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>5.77</v>
+        <v>-0.18</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>1.382</v>
+        <v>1.4302</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.3804</v>
+        <v>1.4298</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>-0.0019</v>
+        <v>-0.0003</v>
       </c>
       <c r="K78" s="9" t="n">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5851,12 +5851,12 @@
       </c>
       <c r="O78" s="6" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P78" s="6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q78" s="6" t="inlineStr">
@@ -5868,44 +5868,44 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B79" s="3" t="n">
-        <v>310398</v>
+        <v>90010</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>1.4372</v>
+        <v>1.6586</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>25.8</v>
+        <v>1080.54</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>36.53</v>
+        <v>1865.01</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>-0.55</v>
+        <v>72.83</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>1.4158</v>
+        <v>1.726</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>1.4161</v>
+        <v>1.7276</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0012</v>
+        <v>0.001</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>0.01</v>
+        <v>1.73</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5915,66 +5915,66 @@
       </c>
       <c r="N79" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O79" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P79" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q79" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B80" s="3" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>1.6562</v>
+        <v>1.4318</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>1029.18</v>
+        <v>1171.1</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>1740.34</v>
+        <v>1774.22</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>35.82</v>
+        <v>97.44</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>1.691</v>
+        <v>1.515</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.6912</v>
+        <v>1.5146</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0061</v>
-      </c>
-      <c r="K80" s="8" t="n">
-        <v>0.21</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K80" s="9" t="n">
+        <v>-0.47</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -5984,17 +5984,17 @@
       </c>
       <c r="N80" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O80" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P80" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q80" s="6" t="inlineStr">
@@ -6006,44 +6006,44 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B81" s="3" t="n">
-        <v>519671</v>
+        <v>3318</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>1.428</v>
+        <v>0.9368</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>1115.64</v>
+        <v>1577.92</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>1672.34</v>
+        <v>1578.39</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>79.20999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>1.499</v>
+        <v>1.0003</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>1.4999</v>
+        <v>0.9961</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K81" s="8" t="n">
-        <v>1</v>
+        <v>-0.0042</v>
+      </c>
+      <c r="K81" s="9" t="n">
+        <v>-6.63</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6053,17 +6053,17 @@
       </c>
       <c r="N81" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O81" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P81" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q81" s="6" t="inlineStr">
@@ -6075,64 +6075,64 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B82" s="3" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C82" s="4" t="n">
-        <v>0.9345</v>
+        <v>1.3514</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>1498.3</v>
+        <v>915.97</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>1446.01</v>
+        <v>1421.22</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>45.85</v>
+        <v>183.38</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>0.9651</v>
+        <v>1.5516</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>0.9651999999999999</v>
+        <v>1.5568</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.0035</v>
+        <v>-0.0023</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>0.15</v>
+        <v>4.76</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 16:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N82" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O82" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P82" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q82" s="6" t="inlineStr">
@@ -6144,64 +6144,64 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B83" s="3" t="n">
-        <v>501021</v>
+        <v>70023</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>1.3514</v>
+        <v>1.7992</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>915.97</v>
+        <v>528.99</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>1399.69</v>
+        <v>1092.73</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>161.85</v>
+        <v>140.98</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.5281</v>
+        <v>2.0657</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.5212</v>
+        <v>2.0582</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.0043</v>
+        <v>-0.0036</v>
       </c>
       <c r="K83" s="9" t="n">
-        <v>-6.32</v>
+        <v>-3.97</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 16:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N83" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O83" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="P83" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>116</t>
         </is>
       </c>
       <c r="Q83" s="6" t="inlineStr">
@@ -6213,44 +6213,44 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B84" s="3" t="n">
-        <v>70023</v>
+        <v>530015</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>1.7992</v>
+        <v>2.142</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>528.99</v>
+        <v>451.58</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1055.02</v>
+        <v>1086.05</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>103.26</v>
+        <v>118.77</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1.9944</v>
+        <v>2.405</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.9944</v>
+        <v>2.3938</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="K84" s="8" t="n">
-        <v>0</v>
+        <v>-0.0047</v>
+      </c>
+      <c r="K84" s="9" t="n">
+        <v>-5.06</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6265,12 +6265,12 @@
       </c>
       <c r="O84" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="P84" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Q84" s="6" t="inlineStr">
@@ -6282,44 +6282,44 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B85" s="3" t="n">
-        <v>530015</v>
+        <v>968</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>2.1357</v>
+        <v>0.9588</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>436.95</v>
+        <v>426.97</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1016.96</v>
+        <v>450.03</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>83.76000000000001</v>
+        <v>40.65</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>2.3274</v>
+        <v>1.054</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>2.3275</v>
+        <v>1.0509</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="K85" s="8" t="n">
-        <v>0.04</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K85" s="9" t="n">
+        <v>-1.32</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6329,17 +6329,17 @@
       </c>
       <c r="N85" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O85" s="6" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P85" s="6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q85" s="6" t="inlineStr">
@@ -6351,44 +6351,44 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>968</v>
+        <v>501029</v>
       </c>
       <c r="C86" s="4" t="n">
-        <v>0.9588</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>426.97</v>
+        <v>227.52</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>428.38</v>
+        <v>235.41</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>19</v>
+        <v>11.9</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.0033</v>
+        <v>1.0347</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.0035</v>
+        <v>1.0319</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="K86" s="8" t="n">
-        <v>0.09</v>
+        <v>-0.0027</v>
+      </c>
+      <c r="K86" s="9" t="n">
+        <v>-0.64</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6398,17 +6398,17 @@
       </c>
       <c r="N86" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O86" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P86" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q86" s="6" t="inlineStr">
@@ -6420,44 +6420,44 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B87" s="3" t="n">
-        <v>501029</v>
+        <v>1594</v>
       </c>
       <c r="C87" s="4" t="n">
-        <v>0.9824000000000001</v>
+        <v>1.2523</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>227.52</v>
+        <v>158.93</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>228</v>
+        <v>201.24</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>4.48</v>
+        <v>2.21</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>1.0021</v>
+        <v>1.2662</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>0.9991</v>
+        <v>1.2632</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>0.0031</v>
+        <v>-0.0024</v>
       </c>
       <c r="K87" s="9" t="n">
-        <v>-0.68</v>
+        <v>-0.48</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6467,17 +6467,17 @@
       </c>
       <c r="N87" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O87" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P87" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q87" s="6" t="inlineStr">
@@ -6502,31 +6502,31 @@
         <v>142.1</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>196.38</v>
+        <v>198.37</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>13.93</v>
+        <v>15.92</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.382</v>
+        <v>1.396</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.3804</v>
+        <v>1.3908</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>-0.0019</v>
+        <v>-0.0037</v>
       </c>
       <c r="K88" s="9" t="n">
-        <v>-0.23</v>
+        <v>-0.74</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6571,31 +6571,31 @@
         <v>212.74</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>168.21</v>
+        <v>175.06</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>25.51</v>
+        <v>32.36</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>0.7907</v>
+        <v>0.8229</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>0.7912</v>
+        <v>0.8209</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="K89" s="8" t="n">
-        <v>0.11</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K89" s="9" t="n">
+        <v>-0.43</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6627,44 +6627,44 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B90" s="3" t="n">
-        <v>1594</v>
+        <v>310398</v>
       </c>
       <c r="C90" s="4" t="n">
-        <v>1.2423</v>
+        <v>1.4372</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>97.89</v>
+        <v>25.8</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>123.15</v>
+        <v>36.9</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>1.54</v>
+        <v>-0.18</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>1.258</v>
+        <v>1.4302</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1.2579</v>
+        <v>1.4298</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0003</v>
       </c>
       <c r="K90" s="9" t="n">
         <v>-0.01</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6674,17 +6674,17 @@
       </c>
       <c r="N90" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O90" s="6" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P90" s="6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q90" s="6" t="inlineStr">
@@ -6694,115 +6694,115 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="n">
-        <v>310398</v>
-      </c>
-      <c r="C91" s="4" t="n">
-        <v>1.4372</v>
-      </c>
-      <c r="D91" s="5" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E91" s="5" t="n">
-        <v>36.53</v>
-      </c>
-      <c r="F91" s="5" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="G91" s="4" t="n">
-        <v>1.4158</v>
-      </c>
-      <c r="H91" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-31</t>
-        </is>
-      </c>
-      <c r="I91" s="4" t="n">
-        <v>1.4161</v>
-      </c>
-      <c r="J91" s="7" t="n">
-        <v>0.0012</v>
+      <c r="A91" s="22" t="inlineStr">
+        <is>
+          <t>交银稳鑫短债债券A</t>
+        </is>
+      </c>
+      <c r="B91" s="23" t="n">
+        <v>6793</v>
+      </c>
+      <c r="C91" s="24" t="n">
+        <v>1.0286</v>
+      </c>
+      <c r="D91" s="25" t="n">
+        <v>78202.03</v>
+      </c>
+      <c r="E91" s="25" t="n">
+        <v>80892.17999999999</v>
+      </c>
+      <c r="F91" s="25" t="n">
+        <v>453.57</v>
+      </c>
+      <c r="G91" s="24" t="n">
+        <v>1.0344</v>
+      </c>
+      <c r="H91" s="26" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="I91" s="24" t="n">
+        <v>1.0347</v>
+      </c>
+      <c r="J91" s="27" t="n">
+        <v>0.0003</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L91" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-31 15:00</t>
-        </is>
-      </c>
-      <c r="M91" s="6" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N91" s="6" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="O91" s="6" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="P91" s="6" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="Q91" s="6" t="inlineStr">
-        <is>
-          <t>螺丝钉母</t>
+        <v>23.46</v>
+      </c>
+      <c r="L91" s="26" t="inlineStr">
+        <is>
+          <t>2020-01-14 15:00</t>
+        </is>
+      </c>
+      <c r="M91" s="26" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="N91" s="26" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="O91" s="26" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="P91" s="26" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="Q91" s="26" t="inlineStr">
+        <is>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="22" t="inlineStr">
         <is>
-          <t>交银稳鑫短债债券A</t>
+          <t>交银信用添利债券(LOF)</t>
         </is>
       </c>
       <c r="B92" s="23" t="n">
-        <v>6793</v>
+        <v>164902</v>
       </c>
       <c r="C92" s="24" t="n">
-        <v>1.0286</v>
+        <v>1.1469</v>
       </c>
       <c r="D92" s="25" t="n">
-        <v>171152.16</v>
+        <v>132767.68</v>
       </c>
       <c r="E92" s="25" t="n">
-        <v>176646.14</v>
+        <v>152417.3</v>
       </c>
       <c r="F92" s="25" t="n">
-        <v>599.03</v>
+        <v>146.04</v>
       </c>
       <c r="G92" s="24" t="n">
-        <v>1.0321</v>
+        <v>1.148</v>
       </c>
       <c r="H92" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I92" s="24" t="n">
-        <v>1.0324</v>
+        <v>1.1482</v>
       </c>
       <c r="J92" s="27" t="n">
-        <v>0.0004</v>
+        <v>0.0001</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>51.35</v>
+        <v>26.55</v>
       </c>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M92" s="26" t="inlineStr">
@@ -6847,31 +6847,31 @@
         <v>11598.58</v>
       </c>
       <c r="E93" s="25" t="n">
-        <v>18522.93</v>
+        <v>19543.61</v>
       </c>
       <c r="F93" s="25" t="n">
-        <v>1522.89</v>
+        <v>2543.57</v>
       </c>
       <c r="G93" s="24" t="n">
-        <v>1.597</v>
+        <v>1.685</v>
       </c>
       <c r="H93" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I93" s="24" t="n">
-        <v>1.5983</v>
+        <v>1.6806</v>
       </c>
       <c r="J93" s="27" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="K93" s="8" t="n">
-        <v>15.08</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="K93" s="9" t="n">
+        <v>-51.03</v>
       </c>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M93" s="26" t="inlineStr">
@@ -6910,37 +6910,37 @@
         <v>519718</v>
       </c>
       <c r="C94" s="24" t="n">
-        <v>1.0759</v>
+        <v>1.0763</v>
       </c>
       <c r="D94" s="25" t="n">
-        <v>128864.36</v>
+        <v>143011.92</v>
       </c>
       <c r="E94" s="25" t="n">
-        <v>139173.51</v>
+        <v>155024.92</v>
       </c>
       <c r="F94" s="25" t="n">
-        <v>528.34</v>
+        <v>1101.19</v>
       </c>
       <c r="G94" s="24" t="n">
-        <v>1.08</v>
+        <v>1.084</v>
       </c>
       <c r="H94" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I94" s="24" t="n">
-        <v>1.0804</v>
+        <v>1.0723</v>
       </c>
       <c r="J94" s="27" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K94" s="8" t="n">
-        <v>51.55</v>
+        <v>0.0003</v>
+      </c>
+      <c r="K94" s="9" t="n">
+        <v>-1673.24</v>
       </c>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M94" s="26" t="inlineStr">
@@ -6985,31 +6985,31 @@
         <v>132719.84</v>
       </c>
       <c r="E95" s="25" t="n">
-        <v>143337.43</v>
+        <v>143735.59</v>
       </c>
       <c r="F95" s="25" t="n">
-        <v>212.35</v>
+        <v>610.51</v>
       </c>
       <c r="G95" s="24" t="n">
-        <v>1.08</v>
+        <v>1.083</v>
       </c>
       <c r="H95" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I95" s="24" t="n">
-        <v>1.0804</v>
+        <v>1.0722</v>
       </c>
       <c r="J95" s="27" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="K95" s="8" t="n">
-        <v>53.09</v>
+        <v>0.0002</v>
+      </c>
+      <c r="K95" s="9" t="n">
+        <v>-1433.37</v>
       </c>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M95" s="26" t="inlineStr">
@@ -7041,44 +7041,44 @@
     <row r="96">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>交银新回报灵活配置混合A</t>
+          <t>交银周期回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B96" s="23" t="n">
-        <v>519752</v>
+        <v>519738</v>
       </c>
       <c r="C96" s="24" t="n">
-        <v>1.2439</v>
+        <v>1.211</v>
       </c>
       <c r="D96" s="25" t="n">
-        <v>59685.02</v>
+        <v>66296.46000000001</v>
       </c>
       <c r="E96" s="25" t="n">
-        <v>75083.75999999999</v>
+        <v>80682.78999999999</v>
       </c>
       <c r="F96" s="25" t="n">
-        <v>841.5599999999999</v>
+        <v>397.78</v>
       </c>
       <c r="G96" s="24" t="n">
-        <v>1.258</v>
+        <v>1.217</v>
       </c>
       <c r="H96" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I96" s="24" t="n">
-        <v>1.2584</v>
+        <v>1.2156</v>
       </c>
       <c r="J96" s="27" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="K96" s="8" t="n">
-        <v>23.87</v>
+        <v>-0.0011</v>
+      </c>
+      <c r="K96" s="9" t="n">
+        <v>-92.81999999999999</v>
       </c>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M96" s="26" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="P96" s="26" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q96" s="26" t="inlineStr">
@@ -7110,44 +7110,44 @@
     <row r="97">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>交银多策略回报灵活配置混合A</t>
+          <t>交银新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B97" s="23" t="n">
-        <v>519755</v>
+        <v>519752</v>
       </c>
       <c r="C97" s="24" t="n">
-        <v>1.2894</v>
+        <v>1.2439</v>
       </c>
       <c r="D97" s="25" t="n">
-        <v>76964.17</v>
+        <v>59685.02</v>
       </c>
       <c r="E97" s="25" t="n">
-        <v>100746.1</v>
+        <v>75382.17999999999</v>
       </c>
       <c r="F97" s="25" t="n">
-        <v>1508.5</v>
+        <v>1139.98</v>
       </c>
       <c r="G97" s="24" t="n">
-        <v>1.309</v>
+        <v>1.263</v>
       </c>
       <c r="H97" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I97" s="24" t="n">
-        <v>1.3078</v>
+        <v>1.2627</v>
       </c>
       <c r="J97" s="27" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="K97" s="9" t="n">
-        <v>-92.36</v>
+        <v>-17.91</v>
       </c>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M97" s="26" t="inlineStr">
@@ -7179,64 +7179,64 @@
     <row r="98">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>交银裕盈纯债债券A</t>
+          <t>交银多策略回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B98" s="23" t="n">
-        <v>519776</v>
+        <v>519755</v>
       </c>
       <c r="C98" s="24" t="n">
-        <v>1.0793</v>
+        <v>1.2894</v>
       </c>
       <c r="D98" s="25" t="n">
-        <v>140577.44</v>
+        <v>76964.17</v>
       </c>
       <c r="E98" s="25" t="n">
-        <v>152343.77</v>
+        <v>101361.81</v>
       </c>
       <c r="F98" s="25" t="n">
-        <v>618.54</v>
+        <v>2124.21</v>
       </c>
       <c r="G98" s="24" t="n">
-        <v>1.0837</v>
+        <v>1.317</v>
       </c>
       <c r="H98" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I98" s="24" t="n">
-        <v>1.0836</v>
+        <v>1.3159</v>
       </c>
       <c r="J98" s="27" t="n">
-        <v>0.0003</v>
+        <v>-0.0008</v>
       </c>
       <c r="K98" s="9" t="n">
-        <v>-14.06</v>
+        <v>-84.66</v>
       </c>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M98" s="26" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="N98" s="26" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="O98" s="26" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="P98" s="26" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>412</t>
         </is>
       </c>
       <c r="Q98" s="26" t="inlineStr">
@@ -7261,31 +7261,31 @@
         <v>9697.57</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>11143.48</v>
+        <v>11716.6</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>942.6</v>
+        <v>1515.73</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.1491</v>
+        <v>1.2082</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.1492</v>
+        <v>1.2046</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K99" s="8" t="n">
-        <v>0.97</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K99" s="9" t="n">
+        <v>-34.91</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7330,31 +7330,31 @@
         <v>8677.6</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>10066.02</v>
+        <v>10265.6</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>1265.19</v>
+        <v>1464.78</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>1.16</v>
+        <v>1.183</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>1.16</v>
+        <v>1.1841</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>0.0061</v>
+        <v>0.001</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>0</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7399,31 +7399,31 @@
         <v>6096.21</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>6116.33</v>
+        <v>6425.41</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>916.26</v>
+        <v>1225.34</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>1.0033</v>
+        <v>1.054</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>1.0035</v>
+        <v>1.0509</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="K101" s="8" t="n">
-        <v>1.22</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K101" s="9" t="n">
+        <v>-18.9</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7468,31 +7468,31 @@
         <v>6750.28</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>5805.92</v>
+        <v>6015.17</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>1005.79</v>
+        <v>1215.05</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>0.8601</v>
+        <v>0.8911</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>0.8604000000000001</v>
+        <v>0.8865</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>0.0217</v>
-      </c>
-      <c r="K102" s="8" t="n">
-        <v>2.03</v>
+        <v>-0.0051</v>
+      </c>
+      <c r="K102" s="9" t="n">
+        <v>-31.05</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7537,31 +7537,31 @@
         <v>2760.12</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>4692.2</v>
+        <v>4810.89</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>1092.18</v>
+        <v>1210.86</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>1.7</v>
+        <v>1.743</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>1.6979</v>
+        <v>1.7374</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>0.0035</v>
+        <v>-0.0032</v>
       </c>
       <c r="K103" s="9" t="n">
-        <v>-5.8</v>
+        <v>-15.46</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7606,31 +7606,31 @@
         <v>4423.48</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>3690.07</v>
+        <v>4048.37</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>489.68</v>
+        <v>847.98</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>0.8342000000000001</v>
+        <v>0.9152</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>0.8349</v>
+        <v>0.9152</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="K104" s="8" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7675,31 +7675,31 @@
         <v>5949.77</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>3505.6</v>
+        <v>3752.52</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>305.22</v>
+        <v>552.14</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>0.5891999999999999</v>
+        <v>0.6307</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>0.5891999999999999</v>
+        <v>0.6352</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0031</v>
+        <v>0.0071</v>
       </c>
       <c r="K105" s="8" t="n">
-        <v>0</v>
+        <v>26.77</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7744,31 +7744,31 @@
         <v>1981.84</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>3488.04</v>
+        <v>3541.55</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>296.88</v>
+        <v>350.39</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>1.76</v>
+        <v>1.787</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>1.7588</v>
+        <v>1.7843</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0033</v>
+        <v>-0.0015</v>
       </c>
       <c r="K106" s="9" t="n">
-        <v>-2.38</v>
+        <v>-5.35</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7813,31 +7813,31 @@
         <v>2046.97</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>3488.04</v>
+        <v>3680.45</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>775.8</v>
+        <v>968.22</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.704</v>
+        <v>1.798</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.7019</v>
+        <v>1.7927</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>0.0047</v>
+        <v>-0.0029</v>
       </c>
       <c r="K107" s="9" t="n">
-        <v>-4.3</v>
+        <v>-10.85</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7882,17 +7882,17 @@
         <v>1884.74</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>2286.19</v>
+        <v>2293.73</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>286.1</v>
+        <v>293.64</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>1.213</v>
+        <v>1.217</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
@@ -7951,31 +7951,31 @@
         <v>1213.09</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>2249.43</v>
+        <v>2409.44</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>649.37</v>
+        <v>809.37</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>1.8543</v>
+        <v>1.9862</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.8544</v>
+        <v>1.9739</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K109" s="8" t="n">
-        <v>0.12</v>
+        <v>-0.0062</v>
+      </c>
+      <c r="K109" s="9" t="n">
+        <v>-14.92</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8020,31 +8020,31 @@
         <v>1630.08</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>1979.57</v>
+        <v>2021.3</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>379.48</v>
+        <v>421.21</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>1.2144</v>
+        <v>1.24</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>1.2106</v>
+        <v>1.2388</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>0.0008</v>
+        <v>-0.001</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>-6.19</v>
+        <v>-1.96</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8089,31 +8089,31 @@
         <v>1407.29</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>1915.32</v>
+        <v>2053.24</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>315.23</v>
+        <v>453.15</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.361</v>
+        <v>1.459</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.3745</v>
+        <v>1.462</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.0018</v>
+        <v>0.002</v>
       </c>
       <c r="K111" s="8" t="n">
-        <v>19</v>
+        <v>4.22</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2020-01-01 05:00</t>
+          <t>2020-01-14 05:00</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8158,31 +8158,31 @@
         <v>1338.46</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>1398.69</v>
+        <v>1409.4</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>198.63</v>
+        <v>209.34</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>1.045</v>
+        <v>1.053</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>1.0452</v>
+        <v>1.0499</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K112" s="8" t="n">
-        <v>0.27</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K112" s="9" t="n">
+        <v>-4.15</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8227,31 +8227,31 @@
         <v>3350.7</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>1373.79</v>
+        <v>1333.58</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>-226.51</v>
+        <v>-266.72</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>0.41</v>
+        <v>0.398</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.406</v>
+        <v>0.397</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>-0.0098</v>
+        <v>-0.0124</v>
       </c>
       <c r="K113" s="9" t="n">
-        <v>-13.4</v>
+        <v>-3.35</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:04</t>
+          <t>2020-01-14 15:04</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8296,31 +8296,31 @@
         <v>1546.42</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>1270.69</v>
+        <v>1347.09</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>70.67</v>
+        <v>147.06</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>0.8217</v>
+        <v>0.8711</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>0.8225</v>
+        <v>0.8694</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.0064</v>
-      </c>
-      <c r="K114" s="8" t="n">
-        <v>1.24</v>
+        <v>-0.002</v>
+      </c>
+      <c r="K114" s="9" t="n">
+        <v>-2.63</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8365,31 +8365,31 @@
         <v>900.35</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>1039.18</v>
+        <v>1046.75</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>239.13</v>
+        <v>246.7</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.1542</v>
+        <v>1.1626</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.1543</v>
+        <v>1.1576</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>-0.0011</v>
-      </c>
-      <c r="K115" s="8" t="n">
-        <v>0.09</v>
+        <v>-0.0043</v>
+      </c>
+      <c r="K115" s="9" t="n">
+        <v>-4.5</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8434,31 +8434,31 @@
         <v>733.79</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>914.74</v>
+        <v>920.3200000000001</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>114.69</v>
+        <v>120.27</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>1.2466</v>
+        <v>1.2542</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.2463</v>
+        <v>1.2543</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="K116" s="9" t="n">
-        <v>-0.22</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K116" s="8" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:30</t>
+          <t>2020-01-14 20:06</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8503,31 +8503,31 @@
         <v>496.13</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>550.9</v>
+        <v>556.21</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>150.87</v>
+        <v>156.18</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.1104</v>
+        <v>1.1211</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.1105</v>
+        <v>1.1075</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>-0.0037</v>
-      </c>
-      <c r="K117" s="8" t="n">
-        <v>0.05</v>
+        <v>-0.0122</v>
+      </c>
+      <c r="K117" s="9" t="n">
+        <v>-6.75</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8572,31 +8572,31 @@
         <v>333.04</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>476.38</v>
+        <v>487.37</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>76.37</v>
+        <v>87.36</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>1.4304</v>
+        <v>1.4634</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>1.4287</v>
+        <v>1.4617</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>0.0045</v>
+        <v>-0.0011</v>
       </c>
       <c r="K118" s="9" t="n">
         <v>-0.57</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">
@@ -8641,31 +8641,31 @@
         <v>325.61</v>
       </c>
       <c r="E119" s="31" t="n">
-        <v>445.43</v>
+        <v>456.51</v>
       </c>
       <c r="F119" s="31" t="n">
-        <v>45.42</v>
+        <v>56.49</v>
       </c>
       <c r="G119" s="30" t="n">
-        <v>1.368</v>
+        <v>1.402</v>
       </c>
       <c r="H119" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I119" s="30" t="n">
-        <v>1.3688</v>
+        <v>1.3975</v>
       </c>
       <c r="J119" s="33" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="K119" s="8" t="n">
-        <v>0.26</v>
+        <v>-0.0032</v>
+      </c>
+      <c r="K119" s="9" t="n">
+        <v>-1.47</v>
       </c>
       <c r="L119" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M119" s="32" t="inlineStr">
@@ -8710,31 +8710,31 @@
         <v>275.49</v>
       </c>
       <c r="E120" s="31" t="n">
-        <v>432.46</v>
+        <v>441.58</v>
       </c>
       <c r="F120" s="31" t="n">
-        <v>32.45</v>
+        <v>41.57</v>
       </c>
       <c r="G120" s="30" t="n">
-        <v>1.5698</v>
+        <v>1.6029</v>
       </c>
       <c r="H120" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I120" s="30" t="n">
-        <v>1.5703</v>
+        <v>1.5992</v>
       </c>
       <c r="J120" s="33" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K120" s="8" t="n">
-        <v>0.14</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="K120" s="9" t="n">
+        <v>-1.02</v>
       </c>
       <c r="L120" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 16:00</t>
+          <t>2020-01-14 16:00</t>
         </is>
       </c>
       <c r="M120" s="32" t="inlineStr">
@@ -8779,31 +8779,31 @@
         <v>206.23</v>
       </c>
       <c r="E121" s="31" t="n">
-        <v>425.02</v>
+        <v>447.79</v>
       </c>
       <c r="F121" s="31" t="n">
-        <v>25.02</v>
+        <v>47.78</v>
       </c>
       <c r="G121" s="30" t="n">
-        <v>2.0609</v>
+        <v>2.1713</v>
       </c>
       <c r="H121" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="I121" s="30" t="n">
-        <v>2.0629</v>
+        <v>2.1649</v>
       </c>
       <c r="J121" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K121" s="8" t="n">
-        <v>0.41</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K121" s="9" t="n">
+        <v>-1.32</v>
       </c>
       <c r="L121" s="32" t="inlineStr">
         <is>
-          <t>2019-12-31 15:00</t>
+          <t>2020-01-14 15:00</t>
         </is>
       </c>
       <c r="M121" s="32" t="inlineStr">
@@ -8832,76 +8832,7 @@
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="28" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接C</t>
-        </is>
-      </c>
-      <c r="B122" s="29" t="n">
-        <v>2903</v>
-      </c>
-      <c r="C122" s="30" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="D122" s="31" t="n">
-        <v>275.96</v>
-      </c>
-      <c r="E122" s="31" t="n">
-        <v>253.3</v>
-      </c>
-      <c r="F122" s="31" t="n">
-        <v>24.53</v>
-      </c>
-      <c r="G122" s="30" t="n">
-        <v>0.9179</v>
-      </c>
-      <c r="H122" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-31</t>
-        </is>
-      </c>
-      <c r="I122" s="30" t="n">
-        <v>0.9181</v>
-      </c>
-      <c r="J122" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K122" s="8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L122" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-31 15:00</t>
-        </is>
-      </c>
-      <c r="M122" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N122" s="32" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="O122" s="32" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="P122" s="32" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="Q122" s="32" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scripts/output/202001/全家/全家整体收益估算.xlsx
+++ b/scripts/output/202001/全家/全家整体收益估算.xlsx
@@ -562,37 +562,37 @@
         <v>90010</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.6538</v>
+        <v>1.6554</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2684.17</v>
+        <v>2743.28</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>4632.88</v>
+        <v>4638.89</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>193.8</v>
+        <v>97.66</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.726</v>
+        <v>1.691</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.7276</v>
+        <v>1.6916</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.001</v>
+        <v>0.0033</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>4.29</v>
+        <v>1.65</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -631,37 +631,37 @@
         <v>519671</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.4332</v>
+        <v>1.435</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2981.05</v>
+        <v>3046.82</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>4516.29</v>
+        <v>4487.97</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>243.85</v>
+        <v>115.78</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.515</v>
+        <v>1.473</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.5146</v>
+        <v>1.4732</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0003</v>
-      </c>
-      <c r="K3" s="9" t="n">
-        <v>-1.19</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>0.61</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -700,37 +700,37 @@
         <v>3318</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.9363</v>
+        <v>0.9376</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4027.38</v>
+        <v>4114.92</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4028.59</v>
+        <v>4104.22</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>257.75</v>
+        <v>246.07</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.0003</v>
+        <v>0.9974</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9961</v>
+        <v>0.9973</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0042</v>
+        <v>0.0038</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>-16.91</v>
+        <v>-0.41</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,31 +775,31 @@
         <v>2260.14</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3506.83</v>
+        <v>3475.19</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>459.94</v>
+        <v>428.3</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.5516</v>
+        <v>1.5376</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.5568</v>
+        <v>1.5212</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0023</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>11.75</v>
+        <v>0.0119</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>-37.07</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 16:00</t>
+          <t>2020-01-22 16:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,31 +844,31 @@
         <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2816.31</v>
+        <v>2754.96</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>364.02</v>
+        <v>302.67</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2.0657</v>
+        <v>2.0207</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.0582</v>
+        <v>2.0208</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0036</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>-10.23</v>
+        <v>0.0066</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>0.14</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -913,31 +913,31 @@
         <v>1134.65</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2728.83</v>
+        <v>2655.08</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>305.22</v>
+        <v>231.47</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.405</v>
+        <v>2.34</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.3938</v>
+        <v>2.3404</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0047</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>-12.71</v>
+        <v>0.0064</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>0.45</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>1067.42</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1125.06</v>
+        <v>1105.74</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101.51</v>
+        <v>82.19</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.054</v>
+        <v>1.0359</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.0509</v>
+        <v>1.036</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>-3.31</v>
+        <v>-0.0056</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>0.11</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1038,44 +1038,44 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>501029</v>
+        <v>1594</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.9827</v>
+        <v>1.2542</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>550.4</v>
+        <v>471.41</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>569.5</v>
+        <v>580.45</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28.62</v>
+        <v>-10.8</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.0347</v>
+        <v>1.2313</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>1.0319</v>
+        <v>1.2309</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K9" s="9" t="n">
-        <v>-1.54</v>
+        <v>-0.19</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1085,17 +1085,17 @@
       </c>
       <c r="N9" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O9" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P9" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q9" s="6" t="inlineStr">
@@ -1107,44 +1107,44 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>1594</v>
+        <v>501029</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1.2523</v>
+        <v>0.9827</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>396.18</v>
+        <v>550.4</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>501.64</v>
+        <v>557.39</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.51</v>
+        <v>16.51</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1.2662</v>
+        <v>1.0127</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>1.2632</v>
+        <v>1.0148</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0024</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>-1.19</v>
+        <v>0.0027</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>1.16</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1154,17 +1154,17 @@
       </c>
       <c r="N10" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O10" s="6" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P10" s="6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>531.87</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>437.68</v>
+        <v>456.08</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>80.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>0.8229</v>
+        <v>0.8575</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>0.8209</v>
+        <v>0.8557</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0024</v>
+        <v>-0.0136</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>-1.06</v>
+        <v>-0.96</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>247.91</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>346.08</v>
+        <v>333.69</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32.82</v>
+        <v>20.43</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.396</v>
+        <v>1.346</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.3908</v>
+        <v>1.3584</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0037</v>
-      </c>
-      <c r="K12" s="9" t="n">
-        <v>-1.29</v>
+        <v>0.0092</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>3.07</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1327,31 +1327,31 @@
         <v>64.5</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92.25</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.46</v>
+        <v>-2.95</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.4302</v>
+        <v>1.3916</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.4298</v>
+        <v>1.3915</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>-0.0003</v>
+        <v>0.0015</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>16731.88</v>
       </c>
       <c r="E14" s="13" t="n">
-        <v>10552.8</v>
+        <v>10653.19</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>-1447.31</v>
+        <v>-1346.92</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v>0.6307</v>
+        <v>0.6367</v>
       </c>
       <c r="H14" s="14" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I14" s="12" t="n">
-        <v>0.6352</v>
+        <v>0.6369</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>0.0071</v>
+        <v>0.0171</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>75.29000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M14" s="14" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>2700</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>8324.1</v>
+        <v>8127</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>2014.2</v>
+        <v>1817.1</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>3.083</v>
+        <v>3.01</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.076</v>
+        <v>3.006</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.0013</v>
+        <v>0</v>
       </c>
       <c r="K15" s="9" t="n">
-        <v>-18.9</v>
+        <v>-10.8</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-23 09:11</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1534,31 +1534,31 @@
         <v>9100</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>38215.45</v>
+        <v>37550.24</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>6847.75</v>
+        <v>6182.54</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>4.1995</v>
+        <v>4.1264</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>4.184</v>
+        <v>4.119</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.0043</v>
+        <v>0</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>-141.05</v>
+        <v>-67.34</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-23 09:11</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1603,31 +1603,31 @@
         <v>38800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>233719.56</v>
+        <v>234414.08</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>16400.76</v>
+        <v>17095.28</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>6.0237</v>
+        <v>6.0416</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>6.005</v>
+        <v>6.036</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>-0.0043</v>
+        <v>0</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>-725.5599999999999</v>
+        <v>-217.28</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-23 09:11</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1672,31 +1672,31 @@
         <v>33800</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>28598.18</v>
+        <v>28885.48</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>-1044.42</v>
+        <v>-757.12</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.8461</v>
+        <v>0.8546</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.851</v>
+        <v>0.854</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>165.62</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-20.28</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-23 09:11</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1741,31 +1741,31 @@
         <v>32700</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>34367.7</v>
+        <v>33837.96</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>8763.6</v>
+        <v>8233.860000000001</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>1.051</v>
+        <v>1.0348</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>1.036</v>
+        <v>1.035</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.0133</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>-490.5</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>6.54</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-23 09:11</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,31 +1810,31 @@
         <v>34100</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>31498.17</v>
+        <v>30765.02</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>1865.27</v>
+        <v>1132.12</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>0.9237</v>
+        <v>0.9022</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>0.926</v>
+        <v>0.902</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>-0.0032</v>
-      </c>
-      <c r="K20" s="8" t="n">
-        <v>78.43000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-6.82</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-23 09:11</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,31 +1879,31 @@
         <v>4500</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15233.85</v>
+        <v>15362.1</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2381.85</v>
+        <v>2510.1</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>3.3853</v>
+        <v>3.4138</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>3.374</v>
+        <v>3.407</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.0129</v>
+        <v>0</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>-50.85</v>
+        <v>-30.6</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-23 09:11</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,31 +1948,31 @@
         <v>9200</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>17123.96</v>
+        <v>17640.08</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>4253.16</v>
+        <v>4769.28</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.8613</v>
+        <v>1.9174</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.85</v>
+        <v>1.918</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>-0.0064</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>-103.96</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="8" t="n">
+        <v>5.52</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2020-01-14 15:04</t>
+          <t>2020-01-23 09:10</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2017,31 +2017,31 @@
         <v>14400</v>
       </c>
       <c r="E23" s="19" t="n">
-        <v>20659.68</v>
+        <v>21254.4</v>
       </c>
       <c r="F23" s="19" t="n">
-        <v>2357.28</v>
+        <v>2952</v>
       </c>
       <c r="G23" s="18" t="n">
-        <v>1.4347</v>
+        <v>1.476</v>
       </c>
       <c r="H23" s="20" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I23" s="18" t="n">
-        <v>1.428</v>
+        <v>1.478</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <v>-96.48</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>28.8</v>
       </c>
       <c r="L23" s="20" t="inlineStr">
         <is>
-          <t>2020-01-14 15:04</t>
+          <t>2020-01-23 09:10</t>
         </is>
       </c>
       <c r="M23" s="20" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>4157.52</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>9027.219999999999</v>
+        <v>9020.16</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>1023.17</v>
+        <v>1016.1</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>2.1713</v>
+        <v>2.1696</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>2.1649</v>
+        <v>2.1709</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>-26.61</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>5.4</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>9722</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>6131.67</v>
+        <v>6190</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>795.26</v>
+        <v>853.59</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.6307</v>
+        <v>0.6367</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.6352</v>
+        <v>0.6369</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0071</v>
+        <v>0.0171</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>43.75</v>
+        <v>1.94</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>4943.96</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>5210.93</v>
+        <v>5121.45</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>541.86</v>
+        <v>452.37</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>1.054</v>
+        <v>1.0359</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>1.0509</v>
+        <v>1.036</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K26" s="9" t="n">
-        <v>-15.33</v>
+        <v>-0.0056</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>0.49</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>7379.54</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4538.42</v>
+        <v>4553.18</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>536.49</v>
+        <v>551.25</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>0.615</v>
+        <v>0.617</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.6132</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K27" s="9" t="n">
-        <v>-13.28</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>2.95</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>3665.01</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>4335.71</v>
+        <v>4255.08</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>333.88</v>
+        <v>253.25</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>1.183</v>
+        <v>1.161</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1841</v>
+        <v>1.1619</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.001</v>
+        <v>0.0033</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>4.03</v>
+        <v>3.3</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>4550.55</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>4164.66</v>
+        <v>4074.56</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>829.5700000000001</v>
+        <v>739.46</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>0.9152</v>
+        <v>0.8954</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>0.9152</v>
+        <v>0.8953</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>0</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>-0.46</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>400.63</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>795.73</v>
+        <v>818.29</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>128.72</v>
+        <v>151.28</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>1.9862</v>
+        <v>2.0425</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>1.9739</v>
+        <v>2.0429</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0062</v>
-      </c>
-      <c r="K30" s="9" t="n">
-        <v>-4.93</v>
+        <v>0.013</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>0.16</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>736.3</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>791.38</v>
+        <v>810.74</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>124.36</v>
+        <v>143.73</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>1.0748</v>
+        <v>1.1011</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>1.0682</v>
+        <v>1.1029</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.0062</v>
-      </c>
-      <c r="K31" s="9" t="n">
-        <v>-4.86</v>
+        <v>0.013</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>1.33</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>809.28</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>721.15</v>
+        <v>740.73</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>54.14</v>
+        <v>73.73</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.8911</v>
+        <v>0.9153</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.8865</v>
+        <v>0.9149</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0051</v>
+        <v>-0.0136</v>
       </c>
       <c r="K32" s="9" t="n">
-        <v>-3.72</v>
+        <v>-0.32</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>473.85</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>531.23</v>
+        <v>525.12</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>64.34999999999999</v>
+        <v>58.24</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.1211</v>
+        <v>1.1082</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.1075</v>
+        <v>1.1081</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-0.0122</v>
+        <v>0.0072</v>
       </c>
       <c r="K33" s="9" t="n">
-        <v>-6.44</v>
+        <v>-0.05</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>5299.96</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>2109.38</v>
+        <v>2048.96</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>108.65</v>
+        <v>48.23</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>0.398</v>
+        <v>0.3866</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>0.397</v>
+        <v>0.386</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0124</v>
+        <v>0</v>
       </c>
       <c r="K34" s="9" t="n">
-        <v>-5.3</v>
+        <v>-3.18</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:04</t>
+          <t>2020-01-23 09:10</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,31 +2845,31 @@
         <v>576.8</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>841.55</v>
+        <v>845.59</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>174.54</v>
+        <v>178.58</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.459</v>
+        <v>1.466</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.462</v>
+        <v>1.4659</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K35" s="8" t="n">
-        <v>1.73</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-0.06</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 05:00</t>
+          <t>2020-01-23 05:00</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2914,31 +2914,31 @@
         <v>459.67</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>736.8099999999999</v>
+        <v>717.64</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>69.81999999999999</v>
+        <v>50.66</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.6029</v>
+        <v>1.5612</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.5992</v>
+        <v>1.556</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0023</v>
+        <v>0.0121</v>
       </c>
       <c r="K36" s="9" t="n">
-        <v>-1.7</v>
+        <v>-2.39</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 16:00</t>
+          <t>2020-01-22 16:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2983,17 +2983,17 @@
         <v>611.75</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>744.5</v>
+        <v>739.61</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>77.51000000000001</v>
+        <v>72.61</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.217</v>
+        <v>1.209</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
@@ -3052,31 +3052,31 @@
         <v>1046.73</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>2272.76</v>
+        <v>2270.99</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>272.78</v>
+        <v>271</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>2.1713</v>
+        <v>2.1696</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>2.1649</v>
+        <v>2.1709</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>-6.7</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K38" s="8" t="n">
+        <v>1.36</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1825.9</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>2160.04</v>
+        <v>2119.87</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>159.95</v>
+        <v>119.78</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>1.183</v>
+        <v>1.161</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>1.1841</v>
+        <v>1.1619</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.001</v>
+        <v>0.0033</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1059.17</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>1115.31</v>
+        <v>1090.95</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>115.34</v>
+        <v>90.98</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>1.053</v>
+        <v>1.03</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>1.0499</v>
+        <v>1.0299</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0029</v>
+        <v>0.0018</v>
       </c>
       <c r="K40" s="9" t="n">
-        <v>-3.28</v>
+        <v>-0.11</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1812.7</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>1114.81</v>
+        <v>1118.44</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>114.74</v>
+        <v>118.37</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>0.615</v>
+        <v>0.617</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>0.6132</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>-3.26</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>0.73</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>1227.03</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1122.98</v>
+        <v>1098.68</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>122.95</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>0.9152</v>
+        <v>0.8954</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>0.9152</v>
+        <v>0.8953</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="8" t="n">
-        <v>0</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <v>-0.12</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1312.84</v>
+        <v>1319.14</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>312.87</v>
+        <v>319.17</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.459</v>
+        <v>1.466</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.462</v>
+        <v>1.4659</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K43" s="8" t="n">
-        <v>2.7</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K43" s="9" t="n">
+        <v>-0.09</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 05:00</t>
+          <t>2020-01-23 05:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>689.02</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1104.43</v>
+        <v>1075.7</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>104.46</v>
+        <v>75.72</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>1.6029</v>
+        <v>1.5612</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.5992</v>
+        <v>1.556</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0023</v>
+        <v>0.0121</v>
       </c>
       <c r="K44" s="9" t="n">
-        <v>-2.55</v>
+        <v>-3.58</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 16:00</t>
+          <t>2020-01-22 16:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,31 +3535,31 @@
         <v>1834.47</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>2300.79</v>
+        <v>2320.42</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>300.85</v>
+        <v>320.48</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>1.2542</v>
+        <v>1.2649</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
-        <v>1.2543</v>
+        <v>1.272</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0056</v>
       </c>
       <c r="K45" s="8" t="n">
-        <v>0.18</v>
+        <v>13.02</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 20:06</t>
+          <t>2020-01-23 09:13</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
@@ -3604,31 +3604,31 @@
         <v>4757.9</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1893.64</v>
+        <v>1839.4</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>-106.58</v>
+        <v>-160.82</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>0.398</v>
+        <v>0.3866</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>0.397</v>
+        <v>0.386</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>-0.0124</v>
+        <v>0</v>
       </c>
       <c r="K46" s="9" t="n">
-        <v>-4.76</v>
+        <v>-2.85</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:04</t>
+          <t>2020-01-23 09:10</t>
         </is>
       </c>
       <c r="M46" s="26" t="inlineStr">
@@ -3673,17 +3673,17 @@
         <v>953.96</v>
       </c>
       <c r="E47" s="25" t="n">
-        <v>1160.97</v>
+        <v>1153.34</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>160.93</v>
+        <v>153.3</v>
       </c>
       <c r="G47" s="24" t="n">
-        <v>1.217</v>
+        <v>1.209</v>
       </c>
       <c r="H47" s="26" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="I47" s="24" t="n">
@@ -3742,31 +3742,31 @@
         <v>595.47</v>
       </c>
       <c r="E48" s="25" t="n">
-        <v>1064.1</v>
+        <v>1068.27</v>
       </c>
       <c r="F48" s="25" t="n">
-        <v>64.13</v>
+        <v>68.3</v>
       </c>
       <c r="G48" s="24" t="n">
-        <v>1.787</v>
+        <v>1.794</v>
       </c>
       <c r="H48" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I48" s="24" t="n">
-        <v>1.7843</v>
+        <v>1.7944</v>
       </c>
       <c r="J48" s="27" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K48" s="9" t="n">
-        <v>-1.61</v>
+        <v>0.0025</v>
+      </c>
+      <c r="K48" s="8" t="n">
+        <v>0.24</v>
       </c>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M48" s="26" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>65064.33</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>76971.10000000001</v>
+        <v>75539.69</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>10651.03</v>
+        <v>9219.620000000001</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>1.183</v>
+        <v>1.161</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.1841</v>
+        <v>1.1619</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.001</v>
+        <v>0.0033</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>71.56999999999999</v>
+        <v>58.56</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>63490</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>66918.46000000001</v>
+        <v>65769.28999999999</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>8717.18</v>
+        <v>7568.01</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.054</v>
+        <v>1.0359</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.0509</v>
+        <v>1.036</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K50" s="9" t="n">
-        <v>-196.82</v>
+        <v>-0.0056</v>
+      </c>
+      <c r="K50" s="8" t="n">
+        <v>6.35</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,31 +3949,31 @@
         <v>32370.29</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>40139.16</v>
+        <v>40122.97</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>8137.89</v>
+        <v>8121.71</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>1.24</v>
+        <v>1.2395</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.2388</v>
+        <v>1.2371</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>-0.001</v>
+        <v>0.0011</v>
       </c>
       <c r="K51" s="9" t="n">
-        <v>-38.84</v>
+        <v>-77.69</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4018,31 +4018,31 @@
         <v>20086.63</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>35894.81</v>
+        <v>36035.41</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>3894.8</v>
+        <v>4035.4</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.787</v>
+        <v>1.794</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.7843</v>
+        <v>1.7944</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K52" s="9" t="n">
-        <v>-54.23</v>
+        <v>0.0025</v>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>8.029999999999999</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,31 +4087,31 @@
         <v>41014.88</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>36548.36</v>
+        <v>37540.92</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>5988.17</v>
+        <v>6980.73</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>0.8911</v>
+        <v>0.9153</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>0.8865</v>
+        <v>0.9149</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0051</v>
+        <v>-0.0136</v>
       </c>
       <c r="K53" s="9" t="n">
-        <v>-188.67</v>
+        <v>-16.41</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,17 +4156,17 @@
         <v>20716.63</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>25212.14</v>
+        <v>25046.41</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>2610.3</v>
+        <v>2444.56</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.217</v>
+        <v>1.209</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
@@ -4225,31 +4225,31 @@
         <v>14624.61</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>25490.7</v>
+        <v>25154.33</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>6290.04</v>
+        <v>5953.68</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.743</v>
+        <v>1.72</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.7374</v>
+        <v>1.721</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0032</v>
-      </c>
-      <c r="K55" s="9" t="n">
-        <v>-81.90000000000001</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>14.62</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>21163.93</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>24605.19</v>
+        <v>24008.36</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>5403.15</v>
+        <v>4806.33</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.1626</v>
+        <v>1.1344</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.1576</v>
+        <v>1.1345</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K56" s="9" t="n">
-        <v>-105.82</v>
+        <v>0.0037</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>2.12</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>16778.47</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>24479.79</v>
+        <v>24597.24</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>5278.51</v>
+        <v>5395.96</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.459</v>
+        <v>1.466</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.462</v>
+        <v>1.4659</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K57" s="8" t="n">
-        <v>50.34</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-1.68</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 05:00</t>
+          <t>2020-01-23 05:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>17134.6</v>
+        <v>17306.13</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>4334.16</v>
+        <v>4505.69</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.798</v>
+        <v>1.816</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7927</v>
+        <v>1.8169</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K58" s="9" t="n">
-        <v>-50.51</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K58" s="8" t="n">
+        <v>8.58</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,31 +4501,31 @@
         <v>37267.45</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>14832.45</v>
+        <v>14407.6</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>-4367.75</v>
+        <v>-4792.59</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>0.398</v>
+        <v>0.3866</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>0.397</v>
+        <v>0.386</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>-0.0124</v>
+        <v>0</v>
       </c>
       <c r="K59" s="9" t="n">
-        <v>-37.27</v>
+        <v>-22.36</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:04</t>
+          <t>2020-01-23 09:10</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4570,31 +4570,31 @@
         <v>6798.52</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>10897.35</v>
+        <v>10613.85</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>997.34</v>
+        <v>713.84</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.6029</v>
+        <v>1.5612</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>1.5992</v>
+        <v>1.556</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0023</v>
+        <v>0.0121</v>
       </c>
       <c r="K60" s="9" t="n">
-        <v>-25.15</v>
+        <v>-35.35</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 16:00</t>
+          <t>2020-01-22 16:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4639,31 +4639,31 @@
         <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>8453.85</v>
+        <v>8534.280000000001</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>2053.48</v>
+        <v>2133.9</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.6307</v>
+        <v>0.6367</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.6352</v>
+        <v>0.6369</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0071</v>
+        <v>0.0171</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>60.32</v>
+        <v>2.68</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>5328.62</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>7797.9</v>
+        <v>7847.46</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>1397.7</v>
+        <v>1447.25</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>1.4634</v>
+        <v>1.4727</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>1.4617</v>
+        <v>1.4656</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0011</v>
+        <v>0.0011</v>
       </c>
       <c r="K62" s="9" t="n">
-        <v>-9.06</v>
+        <v>-37.83</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,17 +4777,17 @@
         <v>5609.79</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>7651.75</v>
+        <v>7640.53</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>2506.45</v>
+        <v>2495.23</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>1.364</v>
+        <v>1.362</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
@@ -4846,31 +4846,31 @@
         <v>3889.32</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>3753.58</v>
+        <v>3763.69</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>253.19</v>
+        <v>263.31</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.9651</v>
+        <v>0.9677</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9623</v>
+        <v>0.968</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K64" s="9" t="n">
-        <v>-10.89</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K64" s="8" t="n">
+        <v>1.17</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4915,31 +4915,31 @@
         <v>3299.64</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>7164.51</v>
+        <v>7158.9</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>764.2</v>
+        <v>758.59</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>2.1713</v>
+        <v>2.1696</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>2.1649</v>
+        <v>2.1709</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K65" s="9" t="n">
-        <v>-21.12</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K65" s="8" t="n">
+        <v>4.29</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4984,31 +4984,31 @@
         <v>7852.99</v>
       </c>
       <c r="E66" s="31" t="n">
-        <v>7187.06</v>
+        <v>7031.57</v>
       </c>
       <c r="F66" s="31" t="n">
-        <v>786.87</v>
+        <v>631.38</v>
       </c>
       <c r="G66" s="30" t="n">
-        <v>0.9152</v>
+        <v>0.8954</v>
       </c>
       <c r="H66" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I66" s="30" t="n">
-        <v>0.9152</v>
+        <v>0.8953</v>
       </c>
       <c r="J66" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="8" t="n">
-        <v>0</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-0.79</v>
       </c>
       <c r="L66" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M66" s="32" t="inlineStr">
@@ -5047,37 +5047,37 @@
         <v>519671</v>
       </c>
       <c r="C67" s="4" t="n">
-        <v>1.4318</v>
+        <v>1.4337</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>1128.52</v>
+        <v>1154.83</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>1709.71</v>
+        <v>1701.06</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>93.89</v>
+        <v>45.38</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>1.515</v>
+        <v>1.473</v>
       </c>
       <c r="H67" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1.5146</v>
+        <v>1.4732</v>
       </c>
       <c r="J67" s="7" t="n">
-        <v>-0.0003</v>
-      </c>
-      <c r="K67" s="9" t="n">
-        <v>-0.45</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>0.23</v>
       </c>
       <c r="L67" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M67" s="6" t="inlineStr">
@@ -5116,37 +5116,37 @@
         <v>90010</v>
       </c>
       <c r="C68" s="4" t="n">
-        <v>1.6549</v>
+        <v>1.6567</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>965.5700000000001</v>
+        <v>989.22</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>1666.57</v>
+        <v>1672.77</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>68.65000000000001</v>
+        <v>33.93</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>1.726</v>
+        <v>1.691</v>
       </c>
       <c r="H68" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>1.7276</v>
+        <v>1.6916</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>0.001</v>
+        <v>0.0033</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>1.54</v>
+        <v>0.59</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M68" s="6" t="inlineStr">
@@ -5185,37 +5185,37 @@
         <v>3318</v>
       </c>
       <c r="C69" s="4" t="n">
-        <v>0.9358</v>
+        <v>0.9373</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>1478.24</v>
+        <v>1513.25</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>1478.68</v>
+        <v>1509.32</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>95.34999999999999</v>
+        <v>90.95</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>1.0003</v>
+        <v>0.9974</v>
       </c>
       <c r="H69" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>0.9961</v>
+        <v>0.9973</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>-0.0042</v>
+        <v>0.0038</v>
       </c>
       <c r="K69" s="9" t="n">
-        <v>-6.21</v>
+        <v>-0.15</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M69" s="6" t="inlineStr">
@@ -5260,31 +5260,31 @@
         <v>898.04</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>1393.4</v>
+        <v>1380.83</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>182.39</v>
+        <v>169.82</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>1.5516</v>
+        <v>1.5376</v>
       </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>1.5568</v>
+        <v>1.5212</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>-0.0023</v>
-      </c>
-      <c r="K70" s="8" t="n">
-        <v>4.67</v>
+        <v>0.0119</v>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>-14.73</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 16:00</t>
+          <t>2020-01-22 16:00</t>
         </is>
       </c>
       <c r="M70" s="6" t="inlineStr">
@@ -5329,31 +5329,31 @@
         <v>492.58</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>1017.52</v>
+        <v>995.36</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>132.55</v>
+        <v>110.39</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>2.0657</v>
+        <v>2.0207</v>
       </c>
       <c r="H71" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>2.0582</v>
+        <v>2.0208</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>-0.0036</v>
-      </c>
-      <c r="K71" s="9" t="n">
-        <v>-3.69</v>
+        <v>0.0066</v>
+      </c>
+      <c r="K71" s="8" t="n">
+        <v>0.05</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M71" s="6" t="inlineStr">
@@ -5398,31 +5398,31 @@
         <v>421.99</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>1014.89</v>
+        <v>987.46</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>117.02</v>
+        <v>89.59</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>2.405</v>
+        <v>2.34</v>
       </c>
       <c r="H72" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>2.3938</v>
+        <v>2.3404</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>-0.0047</v>
-      </c>
-      <c r="K72" s="9" t="n">
-        <v>-4.73</v>
+        <v>0.0064</v>
+      </c>
+      <c r="K72" s="8" t="n">
+        <v>0.17</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
@@ -5467,31 +5467,31 @@
         <v>390.82</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>411.92</v>
+        <v>404.85</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>36.78</v>
+        <v>29.7</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>1.054</v>
+        <v>1.0359</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>1.0509</v>
+        <v>1.036</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K73" s="9" t="n">
-        <v>-1.21</v>
+        <v>-0.0056</v>
+      </c>
+      <c r="K73" s="8" t="n">
+        <v>0.04</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5536,31 +5536,31 @@
         <v>214.89</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>222.35</v>
+        <v>217.62</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>11.13</v>
+        <v>6.4</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.0347</v>
+        <v>1.0127</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.0319</v>
+        <v>1.0148</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>-0.0027</v>
-      </c>
-      <c r="K74" s="9" t="n">
-        <v>-0.6</v>
+        <v>0.0027</v>
+      </c>
+      <c r="K74" s="8" t="n">
+        <v>0.45</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5605,31 +5605,31 @@
         <v>212.74</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>175.06</v>
+        <v>182.42</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>32.36</v>
+        <v>39.72</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>0.8229</v>
+        <v>0.8575</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>0.8209</v>
+        <v>0.8557</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>-0.0024</v>
+        <v>-0.0136</v>
       </c>
       <c r="K75" s="9" t="n">
-        <v>-0.43</v>
+        <v>-0.38</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5668,37 +5668,37 @@
         <v>1594</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>1.2568</v>
+        <v>1.2585</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>109.5</v>
+        <v>139.58</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>138.65</v>
+        <v>171.86</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>1.03</v>
+        <v>-3.8</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>1.2662</v>
+        <v>1.2313</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.2632</v>
+        <v>1.2309</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0024</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K76" s="9" t="n">
-        <v>-0.33</v>
+        <v>-0.06</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5743,31 +5743,31 @@
         <v>62.09</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>86.68000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>6.64</v>
+        <v>3.53</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.396</v>
+        <v>1.346</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.3908</v>
+        <v>1.3584</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0037</v>
-      </c>
-      <c r="K77" s="9" t="n">
-        <v>-0.32</v>
+        <v>0.0092</v>
+      </c>
+      <c r="K77" s="8" t="n">
+        <v>0.77</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5812,31 +5812,31 @@
         <v>25.8</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>36.9</v>
+        <v>35.9</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>-0.18</v>
+        <v>-1.18</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>1.4302</v>
+        <v>1.3916</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.4298</v>
+        <v>1.3915</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>-0.0003</v>
-      </c>
-      <c r="K78" s="9" t="n">
-        <v>-0.01</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K78" s="8" t="n">
+        <v>-0</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5875,37 +5875,37 @@
         <v>90010</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>1.6586</v>
+        <v>1.6601</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>1080.54</v>
+        <v>1104.19</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>1865.01</v>
+        <v>1867.19</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>72.83</v>
+        <v>34.12</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>1.726</v>
+        <v>1.691</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>1.7276</v>
+        <v>1.6916</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.001</v>
+        <v>0.0033</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>1.73</v>
+        <v>0.66</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5944,37 +5944,37 @@
         <v>519671</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>1.4318</v>
+        <v>1.4337</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>1171.1</v>
+        <v>1197.41</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>1774.22</v>
+        <v>1763.78</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>97.44</v>
+        <v>47.06</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>1.515</v>
+        <v>1.473</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.5146</v>
+        <v>1.4732</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>-0.0003</v>
-      </c>
-      <c r="K80" s="9" t="n">
-        <v>-0.47</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K80" s="8" t="n">
+        <v>0.24</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6013,37 +6013,37 @@
         <v>3318</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>0.9368</v>
+        <v>0.9381</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>1577.92</v>
+        <v>1612.93</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>1578.39</v>
+        <v>1608.74</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>100.2</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>1.0003</v>
+        <v>0.9974</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.9961</v>
+        <v>0.9973</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>-0.0042</v>
+        <v>0.0038</v>
       </c>
       <c r="K81" s="9" t="n">
-        <v>-6.63</v>
+        <v>-0.16</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6088,31 +6088,31 @@
         <v>915.97</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>1421.22</v>
+        <v>1408.4</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>183.38</v>
+        <v>170.55</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>1.5516</v>
+        <v>1.5376</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.5568</v>
+        <v>1.5212</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>-0.0023</v>
-      </c>
-      <c r="K82" s="8" t="n">
-        <v>4.76</v>
+        <v>0.0119</v>
+      </c>
+      <c r="K82" s="9" t="n">
+        <v>-15.02</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 16:00</t>
+          <t>2020-01-22 16:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6157,31 +6157,31 @@
         <v>528.99</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>1092.73</v>
+        <v>1068.93</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>140.98</v>
+        <v>117.17</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>2.0657</v>
+        <v>2.0207</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>2.0582</v>
+        <v>2.0208</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.0036</v>
-      </c>
-      <c r="K83" s="9" t="n">
-        <v>-3.97</v>
+        <v>0.0066</v>
+      </c>
+      <c r="K83" s="8" t="n">
+        <v>0.05</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6226,31 +6226,31 @@
         <v>451.58</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1086.05</v>
+        <v>1056.7</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>118.77</v>
+        <v>89.41</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>2.405</v>
+        <v>2.34</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>2.3938</v>
+        <v>2.3404</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>-0.0047</v>
-      </c>
-      <c r="K84" s="9" t="n">
-        <v>-5.06</v>
+        <v>0.0064</v>
+      </c>
+      <c r="K84" s="8" t="n">
+        <v>0.18</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6295,31 +6295,31 @@
         <v>426.97</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>450.03</v>
+        <v>442.3</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>40.65</v>
+        <v>32.92</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1.054</v>
+        <v>1.0359</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.0509</v>
+        <v>1.036</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K85" s="9" t="n">
-        <v>-1.32</v>
+        <v>-0.0056</v>
+      </c>
+      <c r="K85" s="8" t="n">
+        <v>0.04</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6351,44 +6351,44 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>501029</v>
+        <v>1594</v>
       </c>
       <c r="C86" s="4" t="n">
-        <v>0.9824000000000001</v>
+        <v>1.2543</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>227.52</v>
+        <v>189.01</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>235.41</v>
+        <v>232.73</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>11.9</v>
+        <v>-4.35</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.0347</v>
+        <v>1.2313</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.0319</v>
+        <v>1.2309</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K86" s="9" t="n">
-        <v>-0.64</v>
+        <v>-0.08</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6398,17 +6398,17 @@
       </c>
       <c r="N86" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O86" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P86" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q86" s="6" t="inlineStr">
@@ -6420,44 +6420,44 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B87" s="3" t="n">
-        <v>1594</v>
+        <v>501029</v>
       </c>
       <c r="C87" s="4" t="n">
-        <v>1.2523</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>158.93</v>
+        <v>227.52</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>201.24</v>
+        <v>230.41</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>2.21</v>
+        <v>6.89</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>1.2662</v>
+        <v>1.0127</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>1.2632</v>
+        <v>1.0148</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>-0.0024</v>
-      </c>
-      <c r="K87" s="9" t="n">
-        <v>-0.48</v>
+        <v>0.0027</v>
+      </c>
+      <c r="K87" s="8" t="n">
+        <v>0.48</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6467,17 +6467,17 @@
       </c>
       <c r="N87" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O87" s="6" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P87" s="6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q87" s="6" t="inlineStr">
@@ -6502,31 +6502,31 @@
         <v>142.1</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>198.37</v>
+        <v>191.27</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>15.92</v>
+        <v>8.81</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.396</v>
+        <v>1.346</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.3908</v>
+        <v>1.3584</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>-0.0037</v>
-      </c>
-      <c r="K88" s="9" t="n">
-        <v>-0.74</v>
+        <v>0.0092</v>
+      </c>
+      <c r="K88" s="8" t="n">
+        <v>1.76</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6571,31 +6571,31 @@
         <v>212.74</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>175.06</v>
+        <v>182.42</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>32.36</v>
+        <v>39.72</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>0.8229</v>
+        <v>0.8575</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>0.8209</v>
+        <v>0.8557</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>-0.0024</v>
+        <v>-0.0136</v>
       </c>
       <c r="K89" s="9" t="n">
-        <v>-0.43</v>
+        <v>-0.38</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6640,31 +6640,31 @@
         <v>25.8</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>36.9</v>
+        <v>35.9</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>-0.18</v>
+        <v>-1.18</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>1.4302</v>
+        <v>1.3916</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1.4298</v>
+        <v>1.3915</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>-0.0003</v>
-      </c>
-      <c r="K90" s="9" t="n">
-        <v>-0.01</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K90" s="8" t="n">
+        <v>-0</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6709,31 +6709,31 @@
         <v>78202.03</v>
       </c>
       <c r="E91" s="25" t="n">
-        <v>80892.17999999999</v>
+        <v>80946.92</v>
       </c>
       <c r="F91" s="25" t="n">
-        <v>453.57</v>
+        <v>508.31</v>
       </c>
       <c r="G91" s="24" t="n">
-        <v>1.0344</v>
+        <v>1.0351</v>
       </c>
       <c r="H91" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I91" s="24" t="n">
-        <v>1.0347</v>
+        <v>1.0357</v>
       </c>
       <c r="J91" s="27" t="n">
-        <v>0.0003</v>
+        <v>0.0007</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>23.46</v>
+        <v>46.92</v>
       </c>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M91" s="26" t="inlineStr">
@@ -6778,31 +6778,31 @@
         <v>132767.68</v>
       </c>
       <c r="E92" s="25" t="n">
-        <v>152417.3</v>
+        <v>152682.83</v>
       </c>
       <c r="F92" s="25" t="n">
-        <v>146.04</v>
+        <v>411.58</v>
       </c>
       <c r="G92" s="24" t="n">
-        <v>1.148</v>
+        <v>1.15</v>
       </c>
       <c r="H92" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I92" s="24" t="n">
-        <v>1.1482</v>
+        <v>1.1509</v>
       </c>
       <c r="J92" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0007</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>26.55</v>
+        <v>119.49</v>
       </c>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M92" s="26" t="inlineStr">
@@ -6847,31 +6847,31 @@
         <v>11598.58</v>
       </c>
       <c r="E93" s="25" t="n">
-        <v>19543.61</v>
+        <v>19381.23</v>
       </c>
       <c r="F93" s="25" t="n">
-        <v>2543.57</v>
+        <v>2381.19</v>
       </c>
       <c r="G93" s="24" t="n">
-        <v>1.685</v>
+        <v>1.671</v>
       </c>
       <c r="H93" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I93" s="24" t="n">
-        <v>1.6806</v>
+        <v>1.6725</v>
       </c>
       <c r="J93" s="27" t="n">
-        <v>-0.0026</v>
-      </c>
-      <c r="K93" s="9" t="n">
-        <v>-51.03</v>
+        <v>0.0051</v>
+      </c>
+      <c r="K93" s="8" t="n">
+        <v>17.4</v>
       </c>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M93" s="26" t="inlineStr">
@@ -6910,37 +6910,37 @@
         <v>519718</v>
       </c>
       <c r="C94" s="24" t="n">
-        <v>1.0763</v>
+        <v>1.0644</v>
       </c>
       <c r="D94" s="25" t="n">
-        <v>143011.92</v>
+        <v>144612.8</v>
       </c>
       <c r="E94" s="25" t="n">
-        <v>155024.92</v>
+        <v>155458.76</v>
       </c>
       <c r="F94" s="25" t="n">
-        <v>1101.19</v>
+        <v>1532.9</v>
       </c>
       <c r="G94" s="24" t="n">
-        <v>1.084</v>
+        <v>1.075</v>
       </c>
       <c r="H94" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I94" s="24" t="n">
-        <v>1.0723</v>
+        <v>1.0748</v>
       </c>
       <c r="J94" s="27" t="n">
-        <v>0.0003</v>
+        <v>0.0008</v>
       </c>
       <c r="K94" s="9" t="n">
-        <v>-1673.24</v>
+        <v>-28.92</v>
       </c>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M94" s="26" t="inlineStr">
@@ -6979,37 +6979,37 @@
         <v>519723</v>
       </c>
       <c r="C95" s="24" t="n">
-        <v>1.0784</v>
+        <v>1.0674</v>
       </c>
       <c r="D95" s="25" t="n">
-        <v>132719.84</v>
+        <v>134080.44</v>
       </c>
       <c r="E95" s="25" t="n">
-        <v>143735.59</v>
+        <v>144002.39</v>
       </c>
       <c r="F95" s="25" t="n">
-        <v>610.51</v>
+        <v>884.9299999999999</v>
       </c>
       <c r="G95" s="24" t="n">
-        <v>1.083</v>
+        <v>1.074</v>
       </c>
       <c r="H95" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I95" s="24" t="n">
-        <v>1.0722</v>
+        <v>1.0747</v>
       </c>
       <c r="J95" s="27" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K95" s="9" t="n">
-        <v>-1433.37</v>
+        <v>0.0007</v>
+      </c>
+      <c r="K95" s="8" t="n">
+        <v>93.86</v>
       </c>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M95" s="26" t="inlineStr">
@@ -7048,37 +7048,37 @@
         <v>519738</v>
       </c>
       <c r="C96" s="24" t="n">
-        <v>1.211</v>
+        <v>1.1791</v>
       </c>
       <c r="D96" s="25" t="n">
-        <v>66296.46000000001</v>
+        <v>68092.81</v>
       </c>
       <c r="E96" s="25" t="n">
-        <v>80682.78999999999</v>
+        <v>80689.98</v>
       </c>
       <c r="F96" s="25" t="n">
-        <v>397.78</v>
+        <v>401.75</v>
       </c>
       <c r="G96" s="24" t="n">
-        <v>1.217</v>
+        <v>1.185</v>
       </c>
       <c r="H96" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I96" s="24" t="n">
-        <v>1.2156</v>
+        <v>1.1852</v>
       </c>
       <c r="J96" s="27" t="n">
-        <v>-0.0011</v>
-      </c>
-      <c r="K96" s="9" t="n">
-        <v>-92.81999999999999</v>
+        <v>0.0019</v>
+      </c>
+      <c r="K96" s="8" t="n">
+        <v>13.62</v>
       </c>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M96" s="26" t="inlineStr">
@@ -7123,31 +7123,31 @@
         <v>59685.02</v>
       </c>
       <c r="E97" s="25" t="n">
-        <v>75382.17999999999</v>
+        <v>75441.87</v>
       </c>
       <c r="F97" s="25" t="n">
-        <v>1139.98</v>
+        <v>1199.67</v>
       </c>
       <c r="G97" s="24" t="n">
-        <v>1.263</v>
+        <v>1.264</v>
       </c>
       <c r="H97" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I97" s="24" t="n">
-        <v>1.2627</v>
+        <v>1.2633</v>
       </c>
       <c r="J97" s="27" t="n">
-        <v>-0.0002</v>
+        <v>0.0002</v>
       </c>
       <c r="K97" s="9" t="n">
-        <v>-17.91</v>
+        <v>-41.78</v>
       </c>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M97" s="26" t="inlineStr">
@@ -7202,21 +7202,21 @@
       </c>
       <c r="H98" s="26" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I98" s="24" t="n">
-        <v>1.3159</v>
+        <v>1.3184</v>
       </c>
       <c r="J98" s="27" t="n">
-        <v>-0.0008</v>
-      </c>
-      <c r="K98" s="9" t="n">
-        <v>-84.66</v>
+        <v>0.0018</v>
+      </c>
+      <c r="K98" s="8" t="n">
+        <v>107.75</v>
       </c>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M98" s="26" t="inlineStr">
@@ -7261,31 +7261,31 @@
         <v>9697.57</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>11716.6</v>
+        <v>11749.58</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>1515.73</v>
+        <v>1548.7</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.2082</v>
+        <v>1.2116</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.2046</v>
+        <v>1.2119</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K99" s="9" t="n">
-        <v>-34.91</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K99" s="8" t="n">
+        <v>2.91</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7330,31 +7330,31 @@
         <v>8677.6</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>10265.6</v>
+        <v>10074.69</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>1464.78</v>
+        <v>1273.87</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>1.183</v>
+        <v>1.161</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>1.1841</v>
+        <v>1.1619</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>0.001</v>
+        <v>0.0033</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>9.550000000000001</v>
+        <v>7.81</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7399,31 +7399,31 @@
         <v>6096.21</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>6425.41</v>
+        <v>6315.06</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>1225.34</v>
+        <v>1115</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>1.054</v>
+        <v>1.0359</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>1.0509</v>
+        <v>1.036</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K101" s="9" t="n">
-        <v>-18.9</v>
+        <v>-0.0056</v>
+      </c>
+      <c r="K101" s="8" t="n">
+        <v>0.61</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7468,31 +7468,31 @@
         <v>6750.28</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>6015.17</v>
+        <v>6178.53</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>1215.05</v>
+        <v>1378.41</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>0.8911</v>
+        <v>0.9153</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>0.8865</v>
+        <v>0.9149</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0051</v>
+        <v>-0.0136</v>
       </c>
       <c r="K102" s="9" t="n">
-        <v>-31.05</v>
+        <v>-2.7</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7537,31 +7537,31 @@
         <v>2760.12</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>4810.89</v>
+        <v>4747.41</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>1210.86</v>
+        <v>1147.38</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>1.743</v>
+        <v>1.72</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>1.7374</v>
+        <v>1.721</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>-0.0032</v>
-      </c>
-      <c r="K103" s="9" t="n">
-        <v>-15.46</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K103" s="8" t="n">
+        <v>2.76</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7606,31 +7606,31 @@
         <v>4423.48</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>4048.37</v>
+        <v>3960.78</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>847.98</v>
+        <v>760.4</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>0.9152</v>
+        <v>0.8954</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>0.9152</v>
+        <v>0.8953</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" s="8" t="n">
-        <v>0</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K104" s="9" t="n">
+        <v>-0.44</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7675,31 +7675,31 @@
         <v>5949.77</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>3752.52</v>
+        <v>3788.22</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>552.14</v>
+        <v>587.84</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>0.6307</v>
+        <v>0.6367</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>0.6352</v>
+        <v>0.6369</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0071</v>
+        <v>0.0171</v>
       </c>
       <c r="K105" s="8" t="n">
-        <v>26.77</v>
+        <v>1.19</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7744,31 +7744,31 @@
         <v>1981.84</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>3541.55</v>
+        <v>3555.42</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>350.39</v>
+        <v>364.26</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>1.787</v>
+        <v>1.794</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>1.7843</v>
+        <v>1.7944</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K106" s="9" t="n">
-        <v>-5.35</v>
+        <v>0.0025</v>
+      </c>
+      <c r="K106" s="8" t="n">
+        <v>0.79</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7813,31 +7813,31 @@
         <v>2046.97</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>3680.45</v>
+        <v>3717.3</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>968.22</v>
+        <v>1005.06</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.798</v>
+        <v>1.816</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.7927</v>
+        <v>1.8169</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K107" s="9" t="n">
-        <v>-10.85</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K107" s="8" t="n">
+        <v>1.84</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7882,17 +7882,17 @@
         <v>1884.74</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>2293.73</v>
+        <v>2278.65</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>293.64</v>
+        <v>278.56</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>1.217</v>
+        <v>1.209</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
@@ -7951,31 +7951,31 @@
         <v>1213.09</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>2409.44</v>
+        <v>2477.74</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>809.37</v>
+        <v>877.67</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>1.9862</v>
+        <v>2.0425</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.9739</v>
+        <v>2.0429</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>-0.0062</v>
-      </c>
-      <c r="K109" s="9" t="n">
-        <v>-14.92</v>
+        <v>0.013</v>
+      </c>
+      <c r="K109" s="8" t="n">
+        <v>0.49</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8020,31 +8020,31 @@
         <v>1630.08</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>2021.3</v>
+        <v>2020.48</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>421.21</v>
+        <v>420.4</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>1.24</v>
+        <v>1.2395</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>1.2388</v>
+        <v>1.2371</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>-0.001</v>
+        <v>0.0011</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>-1.96</v>
+        <v>-3.91</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8089,31 +8089,31 @@
         <v>1407.29</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>2053.24</v>
+        <v>2063.09</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>453.15</v>
+        <v>463</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.459</v>
+        <v>1.466</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.462</v>
+        <v>1.4659</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K111" s="8" t="n">
-        <v>4.22</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K111" s="9" t="n">
+        <v>-0.14</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 05:00</t>
+          <t>2020-01-23 05:00</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8158,31 +8158,31 @@
         <v>1338.46</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>1409.4</v>
+        <v>1378.61</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>209.34</v>
+        <v>178.55</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>1.053</v>
+        <v>1.03</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>1.0499</v>
+        <v>1.0299</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>-0.0029</v>
+        <v>0.0018</v>
       </c>
       <c r="K112" s="9" t="n">
-        <v>-4.15</v>
+        <v>-0.13</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8227,31 +8227,31 @@
         <v>3350.7</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>1333.58</v>
+        <v>1295.38</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>-266.72</v>
+        <v>-304.91</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>0.398</v>
+        <v>0.3866</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.397</v>
+        <v>0.386</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>-0.0124</v>
+        <v>0</v>
       </c>
       <c r="K113" s="9" t="n">
-        <v>-3.35</v>
+        <v>-2.01</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:04</t>
+          <t>2020-01-23 09:10</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8296,31 +8296,31 @@
         <v>1546.42</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>1347.09</v>
+        <v>1346.93</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>147.06</v>
+        <v>146.91</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>0.8711</v>
+        <v>0.871</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>0.8694</v>
+        <v>0.8714</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="K114" s="9" t="n">
-        <v>-2.63</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K114" s="8" t="n">
+        <v>0.62</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8365,31 +8365,31 @@
         <v>900.35</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>1046.75</v>
+        <v>1021.36</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>246.7</v>
+        <v>221.31</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.1626</v>
+        <v>1.1344</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.1576</v>
+        <v>1.1345</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K115" s="9" t="n">
-        <v>-4.5</v>
+        <v>0.0037</v>
+      </c>
+      <c r="K115" s="8" t="n">
+        <v>0.09</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8434,31 +8434,31 @@
         <v>733.79</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>920.3200000000001</v>
+        <v>928.17</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>120.27</v>
+        <v>128.12</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>1.2542</v>
+        <v>1.2649</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.2543</v>
+        <v>1.272</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0001</v>
+        <v>0.0056</v>
       </c>
       <c r="K116" s="8" t="n">
-        <v>0.07000000000000001</v>
+        <v>5.21</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 20:06</t>
+          <t>2020-01-23 09:13</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8503,31 +8503,31 @@
         <v>496.13</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>556.21</v>
+        <v>549.8099999999999</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>156.18</v>
+        <v>149.78</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.1211</v>
+        <v>1.1082</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.1075</v>
+        <v>1.1081</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>-0.0122</v>
+        <v>0.0072</v>
       </c>
       <c r="K117" s="9" t="n">
-        <v>-6.75</v>
+        <v>-0.05</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8572,31 +8572,31 @@
         <v>333.04</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>487.37</v>
+        <v>490.47</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>87.36</v>
+        <v>90.45</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>1.4634</v>
+        <v>1.4727</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>1.4617</v>
+        <v>1.4656</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>-0.0011</v>
+        <v>0.0011</v>
       </c>
       <c r="K118" s="9" t="n">
-        <v>-0.57</v>
+        <v>-2.36</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">
@@ -8641,31 +8641,31 @@
         <v>325.61</v>
       </c>
       <c r="E119" s="31" t="n">
-        <v>456.51</v>
+        <v>449.34</v>
       </c>
       <c r="F119" s="31" t="n">
-        <v>56.49</v>
+        <v>49.33</v>
       </c>
       <c r="G119" s="30" t="n">
-        <v>1.402</v>
+        <v>1.38</v>
       </c>
       <c r="H119" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I119" s="30" t="n">
-        <v>1.3975</v>
+        <v>1.3796</v>
       </c>
       <c r="J119" s="33" t="n">
-        <v>-0.0032</v>
+        <v>0.0041</v>
       </c>
       <c r="K119" s="9" t="n">
-        <v>-1.47</v>
+        <v>-0.13</v>
       </c>
       <c r="L119" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M119" s="32" t="inlineStr">
@@ -8710,31 +8710,31 @@
         <v>275.49</v>
       </c>
       <c r="E120" s="31" t="n">
-        <v>441.58</v>
+        <v>430.09</v>
       </c>
       <c r="F120" s="31" t="n">
-        <v>41.57</v>
+        <v>30.08</v>
       </c>
       <c r="G120" s="30" t="n">
-        <v>1.6029</v>
+        <v>1.5612</v>
       </c>
       <c r="H120" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I120" s="30" t="n">
-        <v>1.5992</v>
+        <v>1.556</v>
       </c>
       <c r="J120" s="33" t="n">
-        <v>-0.0023</v>
+        <v>0.0121</v>
       </c>
       <c r="K120" s="9" t="n">
-        <v>-1.02</v>
+        <v>-1.43</v>
       </c>
       <c r="L120" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 16:00</t>
+          <t>2020-01-22 16:00</t>
         </is>
       </c>
       <c r="M120" s="32" t="inlineStr">
@@ -8779,31 +8779,31 @@
         <v>206.23</v>
       </c>
       <c r="E121" s="31" t="n">
-        <v>447.79</v>
+        <v>447.44</v>
       </c>
       <c r="F121" s="31" t="n">
-        <v>47.78</v>
+        <v>47.43</v>
       </c>
       <c r="G121" s="30" t="n">
-        <v>2.1713</v>
+        <v>2.1696</v>
       </c>
       <c r="H121" s="32" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I121" s="30" t="n">
-        <v>2.1649</v>
+        <v>2.1709</v>
       </c>
       <c r="J121" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K121" s="9" t="n">
-        <v>-1.32</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K121" s="8" t="n">
+        <v>0.27</v>
       </c>
       <c r="L121" s="32" t="inlineStr">
         <is>
-          <t>2020-01-14 15:00</t>
+          <t>2020-01-22 15:00</t>
         </is>
       </c>
       <c r="M121" s="32" t="inlineStr">
